--- a/stats/statistics.xlsx
+++ b/stats/statistics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b09a39bcc1012fce/Documents/UniPr/magistrale/secondo_semestre/so_e_tempo_reale/programmi_sort/santa/stats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b09a39bcc1012fce/Documents/UniPr/magistrale/secondo_semestre/so_e_tempo_reale/programmi_sort/SantaClausProblem/stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{67ED1DCB-23F7-4196-AB18-5D8FACEDEB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3B3BFEF-FB8D-4B53-916C-C96E056A1D1D}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{67ED1DCB-23F7-4196-AB18-5D8FACEDEB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{651A0364-A290-47F9-86F2-09157BE6BEC2}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12216" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12216" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery time" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Elves waiting time (2nd)" sheetId="4" r:id="rId4"/>
     <sheet name="Elves waiting time (3rd)" sheetId="5" r:id="rId5"/>
     <sheet name="Elves waiting time (4th)" sheetId="6" r:id="rId6"/>
+    <sheet name="Elves waiting time (5th)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="24">
   <si>
     <t>santa_v1</t>
   </si>
@@ -254,6 +255,38 @@
       <t>) 4th</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>Elves waiting time in ms (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>santa_v3, list</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) 5th</t>
+    </r>
+  </si>
+  <si>
+    <t>Acer Nitro 5</t>
+  </si>
+  <si>
+    <t>ASUS TUF Gaming F15</t>
+  </si>
 </sst>
 </file>
 
@@ -389,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -455,12 +488,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="36">
     <dxf>
       <font>
         <b val="0"/>
@@ -597,6 +631,133 @@
           <bgColor rgb="FFFF6D6D"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2232,61 +2393,125 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>87711</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Immagine 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F23F3257-7BC5-85CE-88B5-CFF101F6AAC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="24479" t="22917" r="14062" b="11979"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6294120" y="982980"/>
+          <a:ext cx="6210300" cy="4934031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18B675D9-1A46-4B9E-8A28-DDFCD9E39F51}" name="Tabella1" displayName="Tabella1" ref="B4:F52" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18B675D9-1A46-4B9E-8A28-DDFCD9E39F51}" name="Tabella1" displayName="Tabella1" ref="B4:F52" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="B4:F52" xr:uid="{18B675D9-1A46-4B9E-8A28-DDFCD9E39F51}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{68C9793C-3CE7-40C5-B12A-8900F1F2BC58}" name="#reindeer" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{02981B51-D820-4A61-8F87-5C973297C766}" name="#elves" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{BBBA96F3-B363-4150-A57C-F38AED59221F}" name="#santa" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{6F893902-C0F0-4313-A514-12FA6DFF381E}" name="Avergage" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{86D7F058-3DD3-4FED-B4FF-C7E1D0D0CEED}" name="Std.Dev." dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{68C9793C-3CE7-40C5-B12A-8900F1F2BC58}" name="#reindeer" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{02981B51-D820-4A61-8F87-5C973297C766}" name="#elves" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{BBBA96F3-B363-4150-A57C-F38AED59221F}" name="#santa" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{6F893902-C0F0-4313-A514-12FA6DFF381E}" name="Avergage" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{86D7F058-3DD3-4FED-B4FF-C7E1D0D0CEED}" name="Std.Dev." dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A39B2A33-B243-42A1-B8FE-DC2DD0CC89D6}" name="Tabella13" displayName="Tabella13" ref="B4:F52" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A39B2A33-B243-42A1-B8FE-DC2DD0CC89D6}" name="Tabella13" displayName="Tabella13" ref="B4:F52" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="B4:F52" xr:uid="{A39B2A33-B243-42A1-B8FE-DC2DD0CC89D6}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D919451E-F7E6-4920-8AF3-89CB7875E493}" name="#reindeer" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{6173E1FA-D16C-4D56-9D2C-874660ECBECC}" name="#elves" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{69AF351C-DC2C-4E81-B786-EAA98C834955}" name="#santa" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{3D88D429-D733-4965-811A-0B0F4C5261A2}" name="Avergage" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{F1CE163C-D627-41C8-B06D-6834C35A9C2D}" name="Std.Dev." dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{D919451E-F7E6-4920-8AF3-89CB7875E493}" name="#reindeer" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{6173E1FA-D16C-4D56-9D2C-874660ECBECC}" name="#elves" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{69AF351C-DC2C-4E81-B786-EAA98C834955}" name="#santa" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{3D88D429-D733-4965-811A-0B0F4C5261A2}" name="Avergage" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{F1CE163C-D627-41C8-B06D-6834C35A9C2D}" name="Std.Dev." dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D62AA6BD-778C-4B8C-819D-731AAC815ED4}" name="Tabella134" displayName="Tabella134" ref="B4:F52" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D62AA6BD-778C-4B8C-819D-731AAC815ED4}" name="Tabella134" displayName="Tabella134" ref="B4:F52" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="B4:F52" xr:uid="{D62AA6BD-778C-4B8C-819D-731AAC815ED4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{57B6EDB4-68BC-452C-A1CC-F02DF4D8D251}" name="#reindeer" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{D203EB9D-013C-4F7C-A372-3FB7CB2A5888}" name="#elves" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{52061BDA-34A7-470C-AA2F-8E68C8608C63}" name="#santa" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{3BB9B3CE-8B9C-48BE-B38A-1C73C2521F7E}" name="Avergage" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{BCC6D40D-FE2C-4585-B668-27AEEC8E9FD5}" name="Std.Dev." dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{57B6EDB4-68BC-452C-A1CC-F02DF4D8D251}" name="#reindeer" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{D203EB9D-013C-4F7C-A372-3FB7CB2A5888}" name="#elves" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{52061BDA-34A7-470C-AA2F-8E68C8608C63}" name="#santa" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{3BB9B3CE-8B9C-48BE-B38A-1C73C2521F7E}" name="Avergage" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{BCC6D40D-FE2C-4585-B668-27AEEC8E9FD5}" name="Std.Dev." dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{845B5C2A-09D4-4A3A-B84E-D1FFE2298ED8}" name="Tabella1345" displayName="Tabella1345" ref="B4:F52" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{845B5C2A-09D4-4A3A-B84E-D1FFE2298ED8}" name="Tabella1345" displayName="Tabella1345" ref="B4:F52" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="B4:F52" xr:uid="{845B5C2A-09D4-4A3A-B84E-D1FFE2298ED8}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7B943B3A-9A89-4F9F-A853-5A9814D469E3}" name="#reindeer" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{A6EEF20A-E28C-4A48-8956-795333ACE39D}" name="#elves" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{457D674E-6A2D-4CDE-95DA-23BE2DB06917}" name="#santa" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{75A64399-1220-4A29-BF03-DE8A45A38951}" name="Avergage" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{8BAF1286-C858-4EFA-A585-F7D1D33611FD}" name="Std.Dev." dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7B943B3A-9A89-4F9F-A853-5A9814D469E3}" name="#reindeer" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{A6EEF20A-E28C-4A48-8956-795333ACE39D}" name="#elves" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{457D674E-6A2D-4CDE-95DA-23BE2DB06917}" name="#santa" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{75A64399-1220-4A29-BF03-DE8A45A38951}" name="Avergage" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{8BAF1286-C858-4EFA-A585-F7D1D33611FD}" name="Std.Dev." dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{20891BED-2C54-4B17-8266-CBD2F440FEE9}" name="Tabella13456" displayName="Tabella13456" ref="B4:F52" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B4:F52" xr:uid="{20891BED-2C54-4B17-8266-CBD2F440FEE9}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9053EC05-B09C-4709-B01A-ACB4CA07722D}" name="#reindeer" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{684A9087-046B-4660-9A40-98D629C59C5F}" name="#elves" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{6E77BF1C-799D-4BE6-B78C-5CA49D1F7BB6}" name="#santa" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{E5670B8F-6E79-4951-A7AA-3021EE6AB1D9}" name="Avergage" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{47117608-6242-4D43-A6C6-C57C9DE4C2B0}" name="Std.Dev." dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11620,7 +11845,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11639,6 +11864,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>13</v>
@@ -12474,9 +12704,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -12486,7 +12717,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12505,6 +12736,11 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>13</v>
@@ -13352,7 +13588,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13371,6 +13607,11 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>13</v>
@@ -14215,6 +14456,878 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4BC096-8A3D-4DAD-A146-92F5CE6C6C59}">
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="18"/>
+    <col min="2" max="2" width="14.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="18">
+        <v>9</v>
+      </c>
+      <c r="C5" s="18">
+        <v>3</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18">
+        <v>2.3920089999999998</v>
+      </c>
+      <c r="F5" s="18">
+        <v>38.350158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
+        <v>9</v>
+      </c>
+      <c r="C6" s="18">
+        <v>3</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2</v>
+      </c>
+      <c r="E6" s="18">
+        <v>3.3172100000000002</v>
+      </c>
+      <c r="F6" s="18">
+        <v>21.847456000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="18">
+        <v>9</v>
+      </c>
+      <c r="C7" s="18">
+        <v>4</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1.5612349999999999</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1.473503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
+        <v>9</v>
+      </c>
+      <c r="C8" s="18">
+        <v>4</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2</v>
+      </c>
+      <c r="E8" s="18">
+        <v>6.7072669999999999</v>
+      </c>
+      <c r="F8" s="18">
+        <v>25.510134999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="18">
+        <v>9</v>
+      </c>
+      <c r="C9" s="18">
+        <v>5</v>
+      </c>
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1.616854</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1.3446149999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
+        <v>9</v>
+      </c>
+      <c r="C10" s="18">
+        <v>5</v>
+      </c>
+      <c r="D10" s="18">
+        <v>2</v>
+      </c>
+      <c r="E10" s="18">
+        <v>9.9307619999999996</v>
+      </c>
+      <c r="F10" s="18">
+        <v>24.693231999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="18">
+        <v>9</v>
+      </c>
+      <c r="C11" s="18">
+        <v>6</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="E11" s="18">
+        <v>2.5645340000000001</v>
+      </c>
+      <c r="F11" s="18">
+        <v>45.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="18">
+        <v>9</v>
+      </c>
+      <c r="C12" s="18">
+        <v>6</v>
+      </c>
+      <c r="D12" s="18">
+        <v>2</v>
+      </c>
+      <c r="E12" s="18">
+        <v>13.407348000000001</v>
+      </c>
+      <c r="F12" s="18">
+        <v>32.253472000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="18">
+        <v>9</v>
+      </c>
+      <c r="C13" s="18">
+        <v>6</v>
+      </c>
+      <c r="D13" s="18">
+        <v>3</v>
+      </c>
+      <c r="E13" s="18">
+        <v>2.307118</v>
+      </c>
+      <c r="F13" s="18">
+        <v>13.711421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="18">
+        <v>9</v>
+      </c>
+      <c r="C14" s="18">
+        <v>7</v>
+      </c>
+      <c r="D14" s="18">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1.33206</v>
+      </c>
+      <c r="F14" s="18">
+        <v>2.0443899999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="18">
+        <v>9</v>
+      </c>
+      <c r="C15" s="18">
+        <v>7</v>
+      </c>
+      <c r="D15" s="18">
+        <v>2</v>
+      </c>
+      <c r="E15" s="18">
+        <v>16.845123000000001</v>
+      </c>
+      <c r="F15" s="18">
+        <v>33.017499000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="18">
+        <v>9</v>
+      </c>
+      <c r="C16" s="18">
+        <v>7</v>
+      </c>
+      <c r="D16" s="18">
+        <v>3</v>
+      </c>
+      <c r="E16" s="18">
+        <v>4.3136599999999996</v>
+      </c>
+      <c r="F16" s="18">
+        <v>15.053824000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="18">
+        <v>9</v>
+      </c>
+      <c r="C17" s="18">
+        <v>8</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1.166399</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1.246156</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="18">
+        <v>9</v>
+      </c>
+      <c r="C18" s="18">
+        <v>8</v>
+      </c>
+      <c r="D18" s="18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="18">
+        <v>20.048573999999999</v>
+      </c>
+      <c r="F18" s="18">
+        <v>34.046677000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="18">
+        <v>9</v>
+      </c>
+      <c r="C19" s="18">
+        <v>8</v>
+      </c>
+      <c r="D19" s="18">
+        <v>3</v>
+      </c>
+      <c r="E19" s="18">
+        <v>7.0839119999999998</v>
+      </c>
+      <c r="F19" s="18">
+        <v>19.645251999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="18">
+        <v>9</v>
+      </c>
+      <c r="C20" s="18">
+        <v>9</v>
+      </c>
+      <c r="D20" s="18">
+        <v>1</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1.219508</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1.42808</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="18">
+        <v>9</v>
+      </c>
+      <c r="C21" s="18">
+        <v>9</v>
+      </c>
+      <c r="D21" s="18">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18">
+        <v>24.366001000000001</v>
+      </c>
+      <c r="F21" s="18">
+        <v>40.514758</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="18">
+        <v>9</v>
+      </c>
+      <c r="C22" s="18">
+        <v>9</v>
+      </c>
+      <c r="D22" s="18">
+        <v>3</v>
+      </c>
+      <c r="E22" s="18">
+        <v>7.8384600000000004</v>
+      </c>
+      <c r="F22" s="18">
+        <v>16.145669999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="18">
+        <v>9</v>
+      </c>
+      <c r="C23" s="18">
+        <v>9</v>
+      </c>
+      <c r="D23" s="18">
+        <v>4</v>
+      </c>
+      <c r="E23" s="18">
+        <v>2.933916</v>
+      </c>
+      <c r="F23" s="18">
+        <v>13.859855</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="18">
+        <v>9</v>
+      </c>
+      <c r="C24" s="18">
+        <v>10</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1</v>
+      </c>
+      <c r="E24" s="18">
+        <v>1.199424</v>
+      </c>
+      <c r="F24" s="18">
+        <v>1.164339</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="18">
+        <v>9</v>
+      </c>
+      <c r="C25" s="18">
+        <v>10</v>
+      </c>
+      <c r="D25" s="18">
+        <v>2</v>
+      </c>
+      <c r="E25" s="18">
+        <v>26.991503000000002</v>
+      </c>
+      <c r="F25" s="18">
+        <v>40.378539000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="18">
+        <v>9</v>
+      </c>
+      <c r="C26" s="18">
+        <v>10</v>
+      </c>
+      <c r="D26" s="18">
+        <v>3</v>
+      </c>
+      <c r="E26" s="18">
+        <v>10.662815999999999</v>
+      </c>
+      <c r="F26" s="18">
+        <v>21.027450999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="18">
+        <v>9</v>
+      </c>
+      <c r="C27" s="18">
+        <v>10</v>
+      </c>
+      <c r="D27" s="18">
+        <v>4</v>
+      </c>
+      <c r="E27" s="18">
+        <v>3.828217</v>
+      </c>
+      <c r="F27" s="18">
+        <v>16.672011000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="18">
+        <v>9</v>
+      </c>
+      <c r="C28" s="18">
+        <v>11</v>
+      </c>
+      <c r="D28" s="18">
+        <v>1</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1.822173</v>
+      </c>
+      <c r="F28" s="18">
+        <v>48.790897999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="18">
+        <v>9</v>
+      </c>
+      <c r="C29" s="18">
+        <v>11</v>
+      </c>
+      <c r="D29" s="18">
+        <v>2</v>
+      </c>
+      <c r="E29" s="18">
+        <v>30.665904999999999</v>
+      </c>
+      <c r="F29" s="18">
+        <v>45.051082999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="18">
+        <v>9</v>
+      </c>
+      <c r="C30" s="18">
+        <v>11</v>
+      </c>
+      <c r="D30" s="18">
+        <v>3</v>
+      </c>
+      <c r="E30" s="18">
+        <v>12.27136</v>
+      </c>
+      <c r="F30" s="18">
+        <v>23.063123000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="18">
+        <v>9</v>
+      </c>
+      <c r="C31" s="18">
+        <v>11</v>
+      </c>
+      <c r="D31" s="18">
+        <v>4</v>
+      </c>
+      <c r="E31" s="18">
+        <v>5.568816</v>
+      </c>
+      <c r="F31" s="18">
+        <v>15.446676999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="18">
+        <v>9</v>
+      </c>
+      <c r="C32" s="18">
+        <v>12</v>
+      </c>
+      <c r="D32" s="18">
+        <v>1</v>
+      </c>
+      <c r="E32" s="18">
+        <v>0.98755199999999999</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0.95560500000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="18">
+        <v>9</v>
+      </c>
+      <c r="C33" s="18">
+        <v>12</v>
+      </c>
+      <c r="D33" s="18">
+        <v>2</v>
+      </c>
+      <c r="E33" s="18">
+        <v>33.979979999999998</v>
+      </c>
+      <c r="F33" s="18">
+        <v>46.035863999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="18">
+        <v>9</v>
+      </c>
+      <c r="C34" s="18">
+        <v>12</v>
+      </c>
+      <c r="D34" s="18">
+        <v>3</v>
+      </c>
+      <c r="E34" s="18">
+        <v>13.558973999999999</v>
+      </c>
+      <c r="F34" s="18">
+        <v>21.371752999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="18">
+        <v>9</v>
+      </c>
+      <c r="C35" s="18">
+        <v>12</v>
+      </c>
+      <c r="D35" s="18">
+        <v>4</v>
+      </c>
+      <c r="E35" s="18">
+        <v>7.0352209999999999</v>
+      </c>
+      <c r="F35" s="18">
+        <v>14.899762000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="18">
+        <v>9</v>
+      </c>
+      <c r="C36" s="18">
+        <v>12</v>
+      </c>
+      <c r="D36" s="18">
+        <v>5</v>
+      </c>
+      <c r="E36" s="18">
+        <v>3.2497549999999999</v>
+      </c>
+      <c r="F36" s="18">
+        <v>13.196353999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="18">
+        <v>9</v>
+      </c>
+      <c r="C37" s="18">
+        <v>13</v>
+      </c>
+      <c r="D37" s="18">
+        <v>1</v>
+      </c>
+      <c r="E37" s="18">
+        <v>1.0749200000000001</v>
+      </c>
+      <c r="F37" s="18">
+        <v>0.648231</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="18">
+        <v>9</v>
+      </c>
+      <c r="C38" s="18">
+        <v>13</v>
+      </c>
+      <c r="D38" s="18">
+        <v>2</v>
+      </c>
+      <c r="E38" s="18">
+        <v>38.143062</v>
+      </c>
+      <c r="F38" s="18">
+        <v>51.419215999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="18">
+        <v>9</v>
+      </c>
+      <c r="C39" s="18">
+        <v>13</v>
+      </c>
+      <c r="D39" s="18">
+        <v>3</v>
+      </c>
+      <c r="E39" s="18">
+        <v>16.845321999999999</v>
+      </c>
+      <c r="F39" s="18">
+        <v>41.206721999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="18">
+        <v>9</v>
+      </c>
+      <c r="C40" s="18">
+        <v>13</v>
+      </c>
+      <c r="D40" s="18">
+        <v>4</v>
+      </c>
+      <c r="E40" s="18">
+        <v>8.8782270000000008</v>
+      </c>
+      <c r="F40" s="18">
+        <v>20.003125000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="18">
+        <v>9</v>
+      </c>
+      <c r="C41" s="18">
+        <v>13</v>
+      </c>
+      <c r="D41" s="18">
+        <v>5</v>
+      </c>
+      <c r="E41" s="18">
+        <v>4.3377559999999997</v>
+      </c>
+      <c r="F41" s="18">
+        <v>13.820251000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="18">
+        <v>9</v>
+      </c>
+      <c r="C42" s="18">
+        <v>14</v>
+      </c>
+      <c r="D42" s="18">
+        <v>1</v>
+      </c>
+      <c r="E42" s="18">
+        <v>1.2430429999999999</v>
+      </c>
+      <c r="F42" s="18">
+        <v>3.0217480000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="18">
+        <v>9</v>
+      </c>
+      <c r="C43" s="18">
+        <v>14</v>
+      </c>
+      <c r="D43" s="18">
+        <v>2</v>
+      </c>
+      <c r="E43" s="18">
+        <v>41.738278999999999</v>
+      </c>
+      <c r="F43" s="18">
+        <v>53.700141000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="18">
+        <v>9</v>
+      </c>
+      <c r="C44" s="18">
+        <v>14</v>
+      </c>
+      <c r="D44" s="18">
+        <v>3</v>
+      </c>
+      <c r="E44" s="18">
+        <v>18.741313000000002</v>
+      </c>
+      <c r="F44" s="18">
+        <v>29.899104999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="18">
+        <v>9</v>
+      </c>
+      <c r="C45" s="18">
+        <v>14</v>
+      </c>
+      <c r="D45" s="18">
+        <v>4</v>
+      </c>
+      <c r="E45" s="18">
+        <v>10.130501000000001</v>
+      </c>
+      <c r="F45" s="18">
+        <v>20.352793999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="18">
+        <v>9</v>
+      </c>
+      <c r="C46" s="18">
+        <v>14</v>
+      </c>
+      <c r="D46" s="18">
+        <v>5</v>
+      </c>
+      <c r="E46" s="18">
+        <v>5.6467640000000001</v>
+      </c>
+      <c r="F46" s="18">
+        <v>15.576309999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="18">
+        <v>9</v>
+      </c>
+      <c r="C47" s="18">
+        <v>15</v>
+      </c>
+      <c r="D47" s="18">
+        <v>1</v>
+      </c>
+      <c r="E47" s="18">
+        <v>1.0843469999999999</v>
+      </c>
+      <c r="F47" s="18">
+        <v>0.61018399999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="18">
+        <v>9</v>
+      </c>
+      <c r="C48" s="18">
+        <v>15</v>
+      </c>
+      <c r="D48" s="18">
+        <v>2</v>
+      </c>
+      <c r="E48" s="18">
+        <v>44.391537999999997</v>
+      </c>
+      <c r="F48" s="18">
+        <v>54.021039000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="18">
+        <v>9</v>
+      </c>
+      <c r="C49" s="18">
+        <v>15</v>
+      </c>
+      <c r="D49" s="18">
+        <v>3</v>
+      </c>
+      <c r="E49" s="18">
+        <v>20.646245</v>
+      </c>
+      <c r="F49" s="18">
+        <v>30.121179999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="18">
+        <v>9</v>
+      </c>
+      <c r="C50" s="18">
+        <v>15</v>
+      </c>
+      <c r="D50" s="18">
+        <v>4</v>
+      </c>
+      <c r="E50" s="18">
+        <v>12.088473</v>
+      </c>
+      <c r="F50" s="18">
+        <v>21.944828000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="18">
+        <v>9</v>
+      </c>
+      <c r="C51" s="18">
+        <v>15</v>
+      </c>
+      <c r="D51" s="18">
+        <v>5</v>
+      </c>
+      <c r="E51" s="18">
+        <v>6.8606860000000003</v>
+      </c>
+      <c r="F51" s="18">
+        <v>19.432787000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="18">
+        <v>9</v>
+      </c>
+      <c r="C52" s="18">
+        <v>15</v>
+      </c>
+      <c r="D52" s="18">
+        <v>6</v>
+      </c>
+      <c r="E52" s="18">
+        <v>3.9206780000000001</v>
+      </c>
+      <c r="F52" s="18">
+        <v>14.173537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5958168B-79F8-46C8-969C-A8B0B51C678F}">
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -14232,7 +15345,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -14263,10 +15381,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="18">
-        <v>2.3920089999999998</v>
+        <v>26.551203999999998</v>
       </c>
       <c r="F5" s="18">
-        <v>38.350158</v>
+        <v>207.20390399999999</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -14280,10 +15398,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="18">
-        <v>3.3172100000000002</v>
+        <v>2.033061</v>
       </c>
       <c r="F6" s="18">
-        <v>21.847456000000001</v>
+        <v>13.449821999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -14297,10 +15415,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="18">
-        <v>1.5612349999999999</v>
+        <v>30.537348999999999</v>
       </c>
       <c r="F7" s="18">
-        <v>1.473503</v>
+        <v>245.98041599999999</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -14314,10 +15432,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="18">
-        <v>6.7072669999999999</v>
+        <v>5.4427830000000004</v>
       </c>
       <c r="F8" s="18">
-        <v>25.510134999999998</v>
+        <v>21.720683999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -14331,10 +15449,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="18">
-        <v>1.616854</v>
+        <v>19.630436</v>
       </c>
       <c r="F9" s="18">
-        <v>1.3446149999999999</v>
+        <v>217.67732899999999</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -14348,10 +15466,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="18">
-        <v>9.9307619999999996</v>
+        <v>7.7984210000000003</v>
       </c>
       <c r="F10" s="18">
-        <v>24.693231999999998</v>
+        <v>18.281195</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -14365,10 +15483,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="18">
-        <v>2.5645340000000001</v>
+        <v>23.460813999999999</v>
       </c>
       <c r="F11" s="18">
-        <v>45.55</v>
+        <v>258.09037799999999</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -14382,10 +15500,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="18">
-        <v>13.407348000000001</v>
+        <v>11.393704</v>
       </c>
       <c r="F12" s="18">
-        <v>32.253472000000002</v>
+        <v>22.824207999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -14399,10 +15517,10 @@
         <v>3</v>
       </c>
       <c r="E13" s="18">
-        <v>2.307118</v>
+        <v>1.137343</v>
       </c>
       <c r="F13" s="18">
-        <v>13.711421</v>
+        <v>7.922536</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -14416,10 +15534,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="18">
-        <v>1.33206</v>
+        <v>11.654083</v>
       </c>
       <c r="F14" s="18">
-        <v>2.0443899999999999</v>
+        <v>174.54871800000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -14433,10 +15551,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="18">
-        <v>16.845123000000001</v>
+        <v>14.990512000000001</v>
       </c>
       <c r="F15" s="18">
-        <v>33.017499000000001</v>
+        <v>30.80564</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -14450,10 +15568,10 @@
         <v>3</v>
       </c>
       <c r="E16" s="18">
-        <v>4.3136599999999996</v>
+        <v>2.6891120000000002</v>
       </c>
       <c r="F16" s="18">
-        <v>15.053824000000001</v>
+        <v>8.7042730000000006</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -14467,10 +15585,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="18">
-        <v>1.166399</v>
+        <v>12.683559000000001</v>
       </c>
       <c r="F17" s="18">
-        <v>1.246156</v>
+        <v>185.838684</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -14484,10 +15602,10 @@
         <v>2</v>
       </c>
       <c r="E18" s="18">
-        <v>20.048573999999999</v>
+        <v>17.382783</v>
       </c>
       <c r="F18" s="18">
-        <v>34.046677000000003</v>
+        <v>25.882346999999999</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -14501,10 +15619,10 @@
         <v>3</v>
       </c>
       <c r="E19" s="18">
-        <v>7.0839119999999998</v>
+        <v>4.4186880000000004</v>
       </c>
       <c r="F19" s="18">
-        <v>19.645251999999999</v>
+        <v>8.7374500000000008</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -14518,10 +15636,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="18">
-        <v>1.219508</v>
+        <v>13.503379000000001</v>
       </c>
       <c r="F20" s="18">
-        <v>1.42808</v>
+        <v>192.77699899999999</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -14535,10 +15653,10 @@
         <v>2</v>
       </c>
       <c r="E21" s="18">
-        <v>24.366001000000001</v>
+        <v>20.258986</v>
       </c>
       <c r="F21" s="18">
-        <v>40.514758</v>
+        <v>28.836863000000001</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -14552,10 +15670,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="18">
-        <v>7.8384600000000004</v>
+        <v>6.2580280000000004</v>
       </c>
       <c r="F22" s="18">
-        <v>16.145669999999999</v>
+        <v>10.673487</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -14569,10 +15687,10 @@
         <v>4</v>
       </c>
       <c r="E23" s="18">
-        <v>2.933916</v>
+        <v>0.94094599999999995</v>
       </c>
       <c r="F23" s="18">
-        <v>13.859855</v>
+        <v>7.9345189999999999</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -14586,10 +15704,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="18">
-        <v>1.199424</v>
+        <v>26.662348999999999</v>
       </c>
       <c r="F24" s="18">
-        <v>1.164339</v>
+        <v>270.22112499999997</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -14603,10 +15721,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="18">
-        <v>26.991503000000002</v>
+        <v>25.009160999999999</v>
       </c>
       <c r="F25" s="18">
-        <v>40.378539000000004</v>
+        <v>36.811304</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -14620,10 +15738,10 @@
         <v>3</v>
       </c>
       <c r="E26" s="18">
-        <v>10.662815999999999</v>
+        <v>8.30335</v>
       </c>
       <c r="F26" s="18">
-        <v>21.027450999999999</v>
+        <v>14.477100999999999</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -14637,10 +15755,10 @@
         <v>4</v>
       </c>
       <c r="E27" s="18">
-        <v>3.828217</v>
+        <v>2.273285</v>
       </c>
       <c r="F27" s="18">
-        <v>16.672011000000001</v>
+        <v>7.3157490000000003</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -14654,10 +15772,10 @@
         <v>1</v>
       </c>
       <c r="E28" s="18">
-        <v>1.822173</v>
+        <v>51.325825999999999</v>
       </c>
       <c r="F28" s="18">
-        <v>48.790897999999999</v>
+        <v>388.13014399999997</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -14671,10 +15789,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="18">
-        <v>30.665904999999999</v>
+        <v>26.048445000000001</v>
       </c>
       <c r="F29" s="18">
-        <v>45.051082999999998</v>
+        <v>33.838580999999998</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -14688,10 +15806,10 @@
         <v>3</v>
       </c>
       <c r="E30" s="18">
-        <v>12.27136</v>
+        <v>9.6326630000000009</v>
       </c>
       <c r="F30" s="18">
-        <v>23.063123000000001</v>
+        <v>13.108397999999999</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -14705,10 +15823,10 @@
         <v>4</v>
       </c>
       <c r="E31" s="18">
-        <v>5.568816</v>
+        <v>3.3668719999999999</v>
       </c>
       <c r="F31" s="18">
-        <v>15.446676999999999</v>
+        <v>9.0832689999999996</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -14722,10 +15840,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="18">
-        <v>0.98755199999999999</v>
+        <v>49.897151000000001</v>
       </c>
       <c r="F32" s="18">
-        <v>0.95560500000000004</v>
+        <v>385.76495399999999</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -14739,10 +15857,10 @@
         <v>2</v>
       </c>
       <c r="E33" s="18">
-        <v>33.979979999999998</v>
+        <v>30.172416999999999</v>
       </c>
       <c r="F33" s="18">
-        <v>46.035863999999997</v>
+        <v>35.797835999999997</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -14756,10 +15874,10 @@
         <v>3</v>
       </c>
       <c r="E34" s="18">
-        <v>13.558973999999999</v>
+        <v>12.256379000000001</v>
       </c>
       <c r="F34" s="18">
-        <v>21.371752999999998</v>
+        <v>15.290703000000001</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -14773,10 +15891,10 @@
         <v>4</v>
       </c>
       <c r="E35" s="18">
-        <v>7.0352209999999999</v>
+        <v>4.9505379999999999</v>
       </c>
       <c r="F35" s="18">
-        <v>14.899762000000001</v>
+        <v>11.638636</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -14790,10 +15908,10 @@
         <v>5</v>
       </c>
       <c r="E36" s="18">
-        <v>3.2497549999999999</v>
+        <v>1.440661</v>
       </c>
       <c r="F36" s="18">
-        <v>13.196353999999999</v>
+        <v>13.126606000000001</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -14807,10 +15925,10 @@
         <v>1</v>
       </c>
       <c r="E37" s="18">
-        <v>1.0749200000000001</v>
+        <v>52.144897</v>
       </c>
       <c r="F37" s="18">
-        <v>0.648231</v>
+        <v>390.41503899999998</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -14824,10 +15942,10 @@
         <v>2</v>
       </c>
       <c r="E38" s="18">
-        <v>38.143062</v>
+        <v>33.917833999999999</v>
       </c>
       <c r="F38" s="18">
-        <v>51.419215999999999</v>
+        <v>41.306126999999996</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -14841,10 +15959,10 @@
         <v>3</v>
       </c>
       <c r="E39" s="18">
-        <v>16.845321999999999</v>
+        <v>13.677391</v>
       </c>
       <c r="F39" s="18">
-        <v>41.206721999999999</v>
+        <v>15.712368</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -14858,10 +15976,10 @@
         <v>4</v>
       </c>
       <c r="E40" s="18">
-        <v>8.8782270000000008</v>
+        <v>6.2771600000000003</v>
       </c>
       <c r="F40" s="18">
-        <v>20.003125000000001</v>
+        <v>11.018959000000001</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -14875,10 +15993,10 @@
         <v>5</v>
       </c>
       <c r="E41" s="18">
-        <v>4.3377559999999997</v>
+        <v>1.925116</v>
       </c>
       <c r="F41" s="18">
-        <v>13.820251000000001</v>
+        <v>3.4798420000000001</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -14892,10 +16010,10 @@
         <v>1</v>
       </c>
       <c r="E42" s="18">
-        <v>1.2430429999999999</v>
+        <v>44.096142</v>
       </c>
       <c r="F42" s="18">
-        <v>3.0217480000000001</v>
+        <v>365.90262999999999</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -14909,10 +16027,10 @@
         <v>2</v>
       </c>
       <c r="E43" s="18">
-        <v>41.738278999999999</v>
+        <v>36.558908000000002</v>
       </c>
       <c r="F43" s="18">
-        <v>53.700141000000002</v>
+        <v>41.570000999999998</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -14926,10 +16044,10 @@
         <v>3</v>
       </c>
       <c r="E44" s="18">
-        <v>18.741313000000002</v>
+        <v>15.271572000000001</v>
       </c>
       <c r="F44" s="18">
-        <v>29.899104999999999</v>
+        <v>16.284020000000002</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -14943,10 +16061,10 @@
         <v>4</v>
       </c>
       <c r="E45" s="18">
-        <v>10.130501000000001</v>
+        <v>7.1809450000000004</v>
       </c>
       <c r="F45" s="18">
-        <v>20.352793999999999</v>
+        <v>8.1305429999999994</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -14960,10 +16078,10 @@
         <v>5</v>
       </c>
       <c r="E46" s="18">
-        <v>5.6467640000000001</v>
+        <v>2.9775659999999999</v>
       </c>
       <c r="F46" s="18">
-        <v>15.576309999999999</v>
+        <v>5.3430220000000004</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -14977,10 +16095,10 @@
         <v>1</v>
       </c>
       <c r="E47" s="18">
-        <v>1.0843469999999999</v>
+        <v>46.631154000000002</v>
       </c>
       <c r="F47" s="18">
-        <v>0.61018399999999995</v>
+        <v>378.89781599999998</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -14994,10 +16112,10 @@
         <v>2</v>
       </c>
       <c r="E48" s="18">
-        <v>44.391537999999997</v>
+        <v>39.891852</v>
       </c>
       <c r="F48" s="18">
-        <v>54.021039000000002</v>
+        <v>43.090541000000002</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -15011,10 +16129,10 @@
         <v>3</v>
       </c>
       <c r="E49" s="18">
-        <v>20.646245</v>
+        <v>16.040735999999999</v>
       </c>
       <c r="F49" s="18">
-        <v>30.121179999999999</v>
+        <v>20.354051999999999</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -15028,10 +16146,10 @@
         <v>4</v>
       </c>
       <c r="E50" s="18">
-        <v>12.088473</v>
+        <v>7.6564180000000004</v>
       </c>
       <c r="F50" s="18">
-        <v>21.944828000000001</v>
+        <v>8.3987180000000006</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -15045,10 +16163,10 @@
         <v>5</v>
       </c>
       <c r="E51" s="18">
-        <v>6.8606860000000003</v>
+        <v>3.566395</v>
       </c>
       <c r="F51" s="18">
-        <v>19.432787000000001</v>
+        <v>13.141807</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -15062,10 +16180,10 @@
         <v>6</v>
       </c>
       <c r="E52" s="18">
-        <v>3.9206780000000001</v>
+        <v>0.74803799999999998</v>
       </c>
       <c r="F52" s="18">
-        <v>14.173537</v>
+        <v>6.0638680000000003</v>
       </c>
     </row>
   </sheetData>
@@ -15079,15 +16197,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005E88FE40BA4E0D4EA2BBF58D03FB6876" ma:contentTypeVersion="14" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="e417158f90a3e000520a4c3f7a238cdd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e6c0028f-6bbf-472a-b529-33761164d13b" xmlns:ns3="8c489475-599a-4bcd-8c75-be2b892c5853" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a052372813eabbbab35c07dbce5fa2" ns2:_="" ns3:_="">
     <xsd:import namespace="e6c0028f-6bbf-472a-b529-33761164d13b"/>
@@ -15316,15 +16425,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43BAA3F7-B280-41FD-9E33-AA955AC1A934}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F7475F-68A6-4CE5-89DE-205D63BB1E24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15341,4 +16451,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43BAA3F7-B280-41FD-9E33-AA955AC1A934}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/stats/statistics.xlsx
+++ b/stats/statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b09a39bcc1012fce/Documents/UniPr/magistrale/secondo_semestre/so_e_tempo_reale/programmi_sort/SantaClausProblem/stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{67ED1DCB-23F7-4196-AB18-5D8FACEDEB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{651A0364-A290-47F9-86F2-09157BE6BEC2}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{67ED1DCB-23F7-4196-AB18-5D8FACEDEB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08515505-93B2-4595-916B-6715E4E800B5}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12216" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12216" tabRatio="745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery time" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Elves waiting time (3rd)" sheetId="5" r:id="rId5"/>
     <sheet name="Elves waiting time (4th)" sheetId="6" r:id="rId6"/>
     <sheet name="Elves waiting time (5th)" sheetId="7" r:id="rId7"/>
+    <sheet name="Elves waiting time (6th)" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="25">
   <si>
     <t>santa_v1</t>
   </si>
@@ -287,6 +288,32 @@
   <si>
     <t>ASUS TUF Gaming F15</t>
   </si>
+  <si>
+    <r>
+      <t>Elves waiting time in ms (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>santa_v3, list</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) 6th</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -479,6 +506,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,13 +516,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="43">
     <dxf>
       <font>
         <b val="0"/>
@@ -631,6 +658,133 @@
           <bgColor rgb="FFFF6D6D"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2447,71 +2601,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335279</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>78738</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>144779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Immagine 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC60D99-9E0D-047F-6413-FFDB2EEDA54D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="24870" t="20139" r="12110" b="11111"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6149339" y="845820"/>
+          <a:ext cx="5839459" cy="4777739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18B675D9-1A46-4B9E-8A28-DDFCD9E39F51}" name="Tabella1" displayName="Tabella1" ref="B4:F52" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18B675D9-1A46-4B9E-8A28-DDFCD9E39F51}" name="Tabella1" displayName="Tabella1" ref="B4:F52" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="B4:F52" xr:uid="{18B675D9-1A46-4B9E-8A28-DDFCD9E39F51}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{68C9793C-3CE7-40C5-B12A-8900F1F2BC58}" name="#reindeer" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{02981B51-D820-4A61-8F87-5C973297C766}" name="#elves" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{BBBA96F3-B363-4150-A57C-F38AED59221F}" name="#santa" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{6F893902-C0F0-4313-A514-12FA6DFF381E}" name="Avergage" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{86D7F058-3DD3-4FED-B4FF-C7E1D0D0CEED}" name="Std.Dev." dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{68C9793C-3CE7-40C5-B12A-8900F1F2BC58}" name="#reindeer" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{02981B51-D820-4A61-8F87-5C973297C766}" name="#elves" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{BBBA96F3-B363-4150-A57C-F38AED59221F}" name="#santa" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{6F893902-C0F0-4313-A514-12FA6DFF381E}" name="Avergage" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{86D7F058-3DD3-4FED-B4FF-C7E1D0D0CEED}" name="Std.Dev." dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A39B2A33-B243-42A1-B8FE-DC2DD0CC89D6}" name="Tabella13" displayName="Tabella13" ref="B4:F52" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A39B2A33-B243-42A1-B8FE-DC2DD0CC89D6}" name="Tabella13" displayName="Tabella13" ref="B4:F52" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="B4:F52" xr:uid="{A39B2A33-B243-42A1-B8FE-DC2DD0CC89D6}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D919451E-F7E6-4920-8AF3-89CB7875E493}" name="#reindeer" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{6173E1FA-D16C-4D56-9D2C-874660ECBECC}" name="#elves" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{69AF351C-DC2C-4E81-B786-EAA98C834955}" name="#santa" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{3D88D429-D733-4965-811A-0B0F4C5261A2}" name="Avergage" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{F1CE163C-D627-41C8-B06D-6834C35A9C2D}" name="Std.Dev." dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{D919451E-F7E6-4920-8AF3-89CB7875E493}" name="#reindeer" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{6173E1FA-D16C-4D56-9D2C-874660ECBECC}" name="#elves" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{69AF351C-DC2C-4E81-B786-EAA98C834955}" name="#santa" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{3D88D429-D733-4965-811A-0B0F4C5261A2}" name="Avergage" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{F1CE163C-D627-41C8-B06D-6834C35A9C2D}" name="Std.Dev." dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D62AA6BD-778C-4B8C-819D-731AAC815ED4}" name="Tabella134" displayName="Tabella134" ref="B4:F52" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D62AA6BD-778C-4B8C-819D-731AAC815ED4}" name="Tabella134" displayName="Tabella134" ref="B4:F52" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="B4:F52" xr:uid="{D62AA6BD-778C-4B8C-819D-731AAC815ED4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{57B6EDB4-68BC-452C-A1CC-F02DF4D8D251}" name="#reindeer" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{D203EB9D-013C-4F7C-A372-3FB7CB2A5888}" name="#elves" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{52061BDA-34A7-470C-AA2F-8E68C8608C63}" name="#santa" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{3BB9B3CE-8B9C-48BE-B38A-1C73C2521F7E}" name="Avergage" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{BCC6D40D-FE2C-4585-B668-27AEEC8E9FD5}" name="Std.Dev." dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{57B6EDB4-68BC-452C-A1CC-F02DF4D8D251}" name="#reindeer" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{D203EB9D-013C-4F7C-A372-3FB7CB2A5888}" name="#elves" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{52061BDA-34A7-470C-AA2F-8E68C8608C63}" name="#santa" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{3BB9B3CE-8B9C-48BE-B38A-1C73C2521F7E}" name="Avergage" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{BCC6D40D-FE2C-4585-B668-27AEEC8E9FD5}" name="Std.Dev." dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{845B5C2A-09D4-4A3A-B84E-D1FFE2298ED8}" name="Tabella1345" displayName="Tabella1345" ref="B4:F52" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{845B5C2A-09D4-4A3A-B84E-D1FFE2298ED8}" name="Tabella1345" displayName="Tabella1345" ref="B4:F52" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="B4:F52" xr:uid="{845B5C2A-09D4-4A3A-B84E-D1FFE2298ED8}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7B943B3A-9A89-4F9F-A853-5A9814D469E3}" name="#reindeer" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{A6EEF20A-E28C-4A48-8956-795333ACE39D}" name="#elves" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{457D674E-6A2D-4CDE-95DA-23BE2DB06917}" name="#santa" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{75A64399-1220-4A29-BF03-DE8A45A38951}" name="Avergage" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{8BAF1286-C858-4EFA-A585-F7D1D33611FD}" name="Std.Dev." dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{7B943B3A-9A89-4F9F-A853-5A9814D469E3}" name="#reindeer" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{A6EEF20A-E28C-4A48-8956-795333ACE39D}" name="#elves" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{457D674E-6A2D-4CDE-95DA-23BE2DB06917}" name="#santa" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{75A64399-1220-4A29-BF03-DE8A45A38951}" name="Avergage" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{8BAF1286-C858-4EFA-A585-F7D1D33611FD}" name="Std.Dev." dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{20891BED-2C54-4B17-8266-CBD2F440FEE9}" name="Tabella13456" displayName="Tabella13456" ref="B4:F52" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{20891BED-2C54-4B17-8266-CBD2F440FEE9}" name="Tabella13456" displayName="Tabella13456" ref="B4:F52" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="B4:F52" xr:uid="{20891BED-2C54-4B17-8266-CBD2F440FEE9}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9053EC05-B09C-4709-B01A-ACB4CA07722D}" name="#reindeer" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{684A9087-046B-4660-9A40-98D629C59C5F}" name="#elves" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{6E77BF1C-799D-4BE6-B78C-5CA49D1F7BB6}" name="#santa" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{E5670B8F-6E79-4951-A7AA-3021EE6AB1D9}" name="Avergage" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{47117608-6242-4D43-A6C6-C57C9DE4C2B0}" name="Std.Dev." dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9053EC05-B09C-4709-B01A-ACB4CA07722D}" name="#reindeer" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{684A9087-046B-4660-9A40-98D629C59C5F}" name="#elves" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{6E77BF1C-799D-4BE6-B78C-5CA49D1F7BB6}" name="#santa" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{E5670B8F-6E79-4951-A7AA-3021EE6AB1D9}" name="Avergage" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{47117608-6242-4D43-A6C6-C57C9DE4C2B0}" name="Std.Dev." dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{22541FB0-CC03-4CA9-936C-82D047C33671}" name="Tabella134567" displayName="Tabella134567" ref="B4:F52" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B4:F52" xr:uid="{22541FB0-CC03-4CA9-936C-82D047C33671}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{815672AA-DCAB-4E06-A789-5AE70A21C8D5}" name="#reindeer" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{DFE91DFD-7A26-4677-A6F5-F7D998184E39}" name="#elves" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{DAA0E904-682B-4FA2-9680-DC515022DCD6}" name="#santa" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{5416EB1D-CE31-48C7-BD91-023F0FE2F3EA}" name="Avergage" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{7F2CF403-6CA6-413F-99E3-788BD4DB72E0}" name="Std.Dev." dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2780,11 +3006,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2802,15 +3029,15 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="F3" s="20" t="s">
+      <c r="B3" s="22"/>
+      <c r="F3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="21"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -3978,6 +4205,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5102D166-31D2-4F88-9F57-0DD1511F61E0}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:AE917"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11842,6 +12072,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9318EA9-EF4F-40C4-B40D-C2DECC197DF3}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11865,7 +12098,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -12714,6 +12947,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA8CDDB-7C2F-468C-81CC-A66C991A4AB3}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12737,7 +12973,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -13585,6 +13821,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8722E89F-6CB4-4BA2-B3A4-D0FDFA6617D4}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13608,7 +13847,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -14456,6 +14695,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4BC096-8A3D-4DAD-A146-92F5CE6C6C59}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14479,7 +14721,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -15328,9 +15570,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5958168B-79F8-46C8-969C-A8B0B51C678F}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15349,7 +15596,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -16192,6 +16439,880 @@
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD46B91-91AD-467A-907F-2DCA8A4905B1}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="18"/>
+    <col min="2" max="2" width="14.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="18">
+        <v>9</v>
+      </c>
+      <c r="C5" s="18">
+        <v>3</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18">
+        <v>25.324762</v>
+      </c>
+      <c r="F5" s="18">
+        <v>212.161372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
+        <v>9</v>
+      </c>
+      <c r="C6" s="18">
+        <v>3</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2</v>
+      </c>
+      <c r="E6" s="18">
+        <v>2.0734620000000001</v>
+      </c>
+      <c r="F6" s="18">
+        <v>16.061627999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="18">
+        <v>9</v>
+      </c>
+      <c r="C7" s="18">
+        <v>4</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18">
+        <v>30.454374999999999</v>
+      </c>
+      <c r="F7" s="18">
+        <v>247.42264700000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
+        <v>9</v>
+      </c>
+      <c r="C8" s="18">
+        <v>4</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2</v>
+      </c>
+      <c r="E8" s="18">
+        <v>4.952013</v>
+      </c>
+      <c r="F8" s="18">
+        <v>18.022134000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="18">
+        <v>9</v>
+      </c>
+      <c r="C9" s="18">
+        <v>5</v>
+      </c>
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18">
+        <v>12.467214</v>
+      </c>
+      <c r="F9" s="18">
+        <v>177.047809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
+        <v>9</v>
+      </c>
+      <c r="C10" s="18">
+        <v>5</v>
+      </c>
+      <c r="D10" s="18">
+        <v>2</v>
+      </c>
+      <c r="E10" s="18">
+        <v>8.0008520000000001</v>
+      </c>
+      <c r="F10" s="18">
+        <v>20.717905999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="18">
+        <v>9</v>
+      </c>
+      <c r="C11" s="18">
+        <v>6</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="E11" s="18">
+        <v>12.227760999999999</v>
+      </c>
+      <c r="F11" s="18">
+        <v>173.15922599999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="18">
+        <v>9</v>
+      </c>
+      <c r="C12" s="18">
+        <v>6</v>
+      </c>
+      <c r="D12" s="18">
+        <v>2</v>
+      </c>
+      <c r="E12" s="18">
+        <v>11.486280000000001</v>
+      </c>
+      <c r="F12" s="18">
+        <v>24.615341000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="18">
+        <v>9</v>
+      </c>
+      <c r="C13" s="18">
+        <v>6</v>
+      </c>
+      <c r="D13" s="18">
+        <v>3</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1.0440640000000001</v>
+      </c>
+      <c r="F13" s="18">
+        <v>6.8620789999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="18">
+        <v>9</v>
+      </c>
+      <c r="C14" s="18">
+        <v>7</v>
+      </c>
+      <c r="D14" s="18">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
+        <v>18.062888000000001</v>
+      </c>
+      <c r="F14" s="18">
+        <v>223.45584500000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="18">
+        <v>9</v>
+      </c>
+      <c r="C15" s="18">
+        <v>7</v>
+      </c>
+      <c r="D15" s="18">
+        <v>2</v>
+      </c>
+      <c r="E15" s="18">
+        <v>14.240508999999999</v>
+      </c>
+      <c r="F15" s="18">
+        <v>25.244962999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="18">
+        <v>9</v>
+      </c>
+      <c r="C16" s="18">
+        <v>7</v>
+      </c>
+      <c r="D16" s="18">
+        <v>3</v>
+      </c>
+      <c r="E16" s="18">
+        <v>2.6232479999999998</v>
+      </c>
+      <c r="F16" s="18">
+        <v>6.0108600000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="18">
+        <v>9</v>
+      </c>
+      <c r="C17" s="18">
+        <v>8</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1</v>
+      </c>
+      <c r="E17" s="18">
+        <v>22.575127999999999</v>
+      </c>
+      <c r="F17" s="18">
+        <v>252.57136800000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="18">
+        <v>9</v>
+      </c>
+      <c r="C18" s="18">
+        <v>8</v>
+      </c>
+      <c r="D18" s="18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="18">
+        <v>17.532720000000001</v>
+      </c>
+      <c r="F18" s="18">
+        <v>27.96876</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="18">
+        <v>9</v>
+      </c>
+      <c r="C19" s="18">
+        <v>8</v>
+      </c>
+      <c r="D19" s="18">
+        <v>3</v>
+      </c>
+      <c r="E19" s="18">
+        <v>4.5417110000000003</v>
+      </c>
+      <c r="F19" s="18">
+        <v>12.104253999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="18">
+        <v>9</v>
+      </c>
+      <c r="C20" s="18">
+        <v>9</v>
+      </c>
+      <c r="D20" s="18">
+        <v>1</v>
+      </c>
+      <c r="E20" s="18">
+        <v>25.598109999999998</v>
+      </c>
+      <c r="F20" s="18">
+        <v>268.209833</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="18">
+        <v>9</v>
+      </c>
+      <c r="C21" s="18">
+        <v>9</v>
+      </c>
+      <c r="D21" s="18">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18">
+        <v>19.758844</v>
+      </c>
+      <c r="F21" s="18">
+        <v>25.579571999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="18">
+        <v>9</v>
+      </c>
+      <c r="C22" s="18">
+        <v>9</v>
+      </c>
+      <c r="D22" s="18">
+        <v>3</v>
+      </c>
+      <c r="E22" s="18">
+        <v>6.1729320000000003</v>
+      </c>
+      <c r="F22" s="18">
+        <v>12.744731</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="18">
+        <v>9</v>
+      </c>
+      <c r="C23" s="18">
+        <v>9</v>
+      </c>
+      <c r="D23" s="18">
+        <v>4</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0.84508499999999998</v>
+      </c>
+      <c r="F23" s="18">
+        <v>7.4958140000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="18">
+        <v>9</v>
+      </c>
+      <c r="C24" s="18">
+        <v>10</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1</v>
+      </c>
+      <c r="E24" s="18">
+        <v>34.469386999999998</v>
+      </c>
+      <c r="F24" s="18">
+        <v>314.89759900000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="18">
+        <v>9</v>
+      </c>
+      <c r="C25" s="18">
+        <v>10</v>
+      </c>
+      <c r="D25" s="18">
+        <v>2</v>
+      </c>
+      <c r="E25" s="18">
+        <v>22.504874999999998</v>
+      </c>
+      <c r="F25" s="18">
+        <v>28.920497999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="18">
+        <v>9</v>
+      </c>
+      <c r="C26" s="18">
+        <v>10</v>
+      </c>
+      <c r="D26" s="18">
+        <v>3</v>
+      </c>
+      <c r="E26" s="18">
+        <v>7.57958</v>
+      </c>
+      <c r="F26" s="18">
+        <v>13.111875</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="18">
+        <v>9</v>
+      </c>
+      <c r="C27" s="18">
+        <v>10</v>
+      </c>
+      <c r="D27" s="18">
+        <v>4</v>
+      </c>
+      <c r="E27" s="18">
+        <v>1.881785</v>
+      </c>
+      <c r="F27" s="18">
+        <v>5.2134090000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="18">
+        <v>9</v>
+      </c>
+      <c r="C28" s="18">
+        <v>11</v>
+      </c>
+      <c r="D28" s="18">
+        <v>1</v>
+      </c>
+      <c r="E28" s="18">
+        <v>39.915716000000003</v>
+      </c>
+      <c r="F28" s="18">
+        <v>342.77420100000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="18">
+        <v>9</v>
+      </c>
+      <c r="C29" s="18">
+        <v>11</v>
+      </c>
+      <c r="D29" s="18">
+        <v>2</v>
+      </c>
+      <c r="E29" s="18">
+        <v>26.373470000000001</v>
+      </c>
+      <c r="F29" s="18">
+        <v>33.422058999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="18">
+        <v>9</v>
+      </c>
+      <c r="C30" s="18">
+        <v>11</v>
+      </c>
+      <c r="D30" s="18">
+        <v>3</v>
+      </c>
+      <c r="E30" s="18">
+        <v>9.6611049999999992</v>
+      </c>
+      <c r="F30" s="18">
+        <v>14.8918</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="18">
+        <v>9</v>
+      </c>
+      <c r="C31" s="18">
+        <v>11</v>
+      </c>
+      <c r="D31" s="18">
+        <v>4</v>
+      </c>
+      <c r="E31" s="18">
+        <v>3.0745990000000001</v>
+      </c>
+      <c r="F31" s="18">
+        <v>5.8559400000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="18">
+        <v>9</v>
+      </c>
+      <c r="C32" s="18">
+        <v>12</v>
+      </c>
+      <c r="D32" s="18">
+        <v>1</v>
+      </c>
+      <c r="E32" s="18">
+        <v>12.081649000000001</v>
+      </c>
+      <c r="F32" s="18">
+        <v>182.18619000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="18">
+        <v>9</v>
+      </c>
+      <c r="C33" s="18">
+        <v>12</v>
+      </c>
+      <c r="D33" s="18">
+        <v>2</v>
+      </c>
+      <c r="E33" s="18">
+        <v>28.794315000000001</v>
+      </c>
+      <c r="F33" s="18">
+        <v>32.354609000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="18">
+        <v>9</v>
+      </c>
+      <c r="C34" s="18">
+        <v>12</v>
+      </c>
+      <c r="D34" s="18">
+        <v>3</v>
+      </c>
+      <c r="E34" s="18">
+        <v>11.288992</v>
+      </c>
+      <c r="F34" s="18">
+        <v>16.526762999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="18">
+        <v>9</v>
+      </c>
+      <c r="C35" s="18">
+        <v>12</v>
+      </c>
+      <c r="D35" s="18">
+        <v>4</v>
+      </c>
+      <c r="E35" s="18">
+        <v>4.2592030000000003</v>
+      </c>
+      <c r="F35" s="18">
+        <v>8.4612119999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="18">
+        <v>9</v>
+      </c>
+      <c r="C36" s="18">
+        <v>12</v>
+      </c>
+      <c r="D36" s="18">
+        <v>5</v>
+      </c>
+      <c r="E36" s="18">
+        <v>0.84629299999999996</v>
+      </c>
+      <c r="F36" s="18">
+        <v>9.7336200000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="18">
+        <v>9</v>
+      </c>
+      <c r="C37" s="18">
+        <v>13</v>
+      </c>
+      <c r="D37" s="18">
+        <v>1</v>
+      </c>
+      <c r="E37" s="18">
+        <v>11.206227999999999</v>
+      </c>
+      <c r="F37" s="18">
+        <v>170.45582200000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="18">
+        <v>9</v>
+      </c>
+      <c r="C38" s="18">
+        <v>13</v>
+      </c>
+      <c r="D38" s="18">
+        <v>2</v>
+      </c>
+      <c r="E38" s="18">
+        <v>32.755223000000001</v>
+      </c>
+      <c r="F38" s="18">
+        <v>38.920794999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="18">
+        <v>9</v>
+      </c>
+      <c r="C39" s="18">
+        <v>13</v>
+      </c>
+      <c r="D39" s="18">
+        <v>3</v>
+      </c>
+      <c r="E39" s="18">
+        <v>12.845834</v>
+      </c>
+      <c r="F39" s="18">
+        <v>15.013631999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="18">
+        <v>9</v>
+      </c>
+      <c r="C40" s="18">
+        <v>13</v>
+      </c>
+      <c r="D40" s="18">
+        <v>4</v>
+      </c>
+      <c r="E40" s="18">
+        <v>5.5195610000000004</v>
+      </c>
+      <c r="F40" s="18">
+        <v>12.651956999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="18">
+        <v>9</v>
+      </c>
+      <c r="C41" s="18">
+        <v>13</v>
+      </c>
+      <c r="D41" s="18">
+        <v>5</v>
+      </c>
+      <c r="E41" s="18">
+        <v>1.5153890000000001</v>
+      </c>
+      <c r="F41" s="18">
+        <v>4.2578930000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="18">
+        <v>9</v>
+      </c>
+      <c r="C42" s="18">
+        <v>14</v>
+      </c>
+      <c r="D42" s="18">
+        <v>1</v>
+      </c>
+      <c r="E42" s="18">
+        <v>11.042353</v>
+      </c>
+      <c r="F42" s="18">
+        <v>169.69864000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="18">
+        <v>9</v>
+      </c>
+      <c r="C43" s="18">
+        <v>14</v>
+      </c>
+      <c r="D43" s="18">
+        <v>2</v>
+      </c>
+      <c r="E43" s="18">
+        <v>35.456325</v>
+      </c>
+      <c r="F43" s="18">
+        <v>40.229112999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="18">
+        <v>9</v>
+      </c>
+      <c r="C44" s="18">
+        <v>14</v>
+      </c>
+      <c r="D44" s="18">
+        <v>3</v>
+      </c>
+      <c r="E44" s="18">
+        <v>14.521820999999999</v>
+      </c>
+      <c r="F44" s="18">
+        <v>15.626598</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="18">
+        <v>9</v>
+      </c>
+      <c r="C45" s="18">
+        <v>14</v>
+      </c>
+      <c r="D45" s="18">
+        <v>4</v>
+      </c>
+      <c r="E45" s="18">
+        <v>6.5677130000000004</v>
+      </c>
+      <c r="F45" s="18">
+        <v>10.536246999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="18">
+        <v>9</v>
+      </c>
+      <c r="C46" s="18">
+        <v>14</v>
+      </c>
+      <c r="D46" s="18">
+        <v>5</v>
+      </c>
+      <c r="E46" s="18">
+        <v>2.442059</v>
+      </c>
+      <c r="F46" s="18">
+        <v>6.1958000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="18">
+        <v>9</v>
+      </c>
+      <c r="C47" s="18">
+        <v>15</v>
+      </c>
+      <c r="D47" s="18">
+        <v>1</v>
+      </c>
+      <c r="E47" s="18">
+        <v>11.123818999999999</v>
+      </c>
+      <c r="F47" s="18">
+        <v>169.315168</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="18">
+        <v>9</v>
+      </c>
+      <c r="C48" s="18">
+        <v>15</v>
+      </c>
+      <c r="D48" s="18">
+        <v>2</v>
+      </c>
+      <c r="E48" s="18">
+        <v>38.256996999999998</v>
+      </c>
+      <c r="F48" s="18">
+        <v>39.933827000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="18">
+        <v>9</v>
+      </c>
+      <c r="C49" s="18">
+        <v>15</v>
+      </c>
+      <c r="D49" s="18">
+        <v>3</v>
+      </c>
+      <c r="E49" s="18">
+        <v>16.300968999999998</v>
+      </c>
+      <c r="F49" s="18">
+        <v>17.772068000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="18">
+        <v>9</v>
+      </c>
+      <c r="C50" s="18">
+        <v>15</v>
+      </c>
+      <c r="D50" s="18">
+        <v>4</v>
+      </c>
+      <c r="E50" s="18">
+        <v>7.8499939999999997</v>
+      </c>
+      <c r="F50" s="18">
+        <v>11.850743</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="18">
+        <v>9</v>
+      </c>
+      <c r="C51" s="18">
+        <v>15</v>
+      </c>
+      <c r="D51" s="18">
+        <v>5</v>
+      </c>
+      <c r="E51" s="18">
+        <v>3.4269379999999998</v>
+      </c>
+      <c r="F51" s="18">
+        <v>8.4907280000000007</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="18">
+        <v>9</v>
+      </c>
+      <c r="C52" s="18">
+        <v>15</v>
+      </c>
+      <c r="D52" s="18">
+        <v>6</v>
+      </c>
+      <c r="E52" s="18">
+        <v>0.73825600000000002</v>
+      </c>
+      <c r="F52" s="18">
+        <v>5.2123200000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/stats/statistics.xlsx
+++ b/stats/statistics.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery time" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="SC busy probability" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Elves waiting time" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Elves waiting time (2th)" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Elves waiting time rigorous (3t" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="21">
   <si>
     <r>
       <rPr>
@@ -190,6 +192,12 @@
   </si>
   <si>
     <t xml:space="preserve">Std.Dev.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elves waiting time in ms (santa_v3) 2th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elves waiting time in ms (santa_v3) 3th (rigorous)</t>
   </si>
 </sst>
 </file>
@@ -492,14 +500,14 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF595959"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -511,7 +519,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -710,11 +718,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="96114813"/>
-        <c:axId val="88441146"/>
+        <c:axId val="58598944"/>
+        <c:axId val="64858855"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96114813"/>
+        <c:axId val="58598944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -790,12 +798,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88441146"/>
+        <c:crossAx val="64858855"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88441146"/>
+        <c:axId val="64858855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +845,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96114813"/>
+        <c:crossAx val="58598944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -876,9 +884,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>586440</xdr:colOff>
+      <xdr:colOff>586080</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -887,7 +895,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2666160" y="1276560"/>
-        <a:ext cx="13075920" cy="3600000"/>
+        <a:ext cx="13075560" cy="3599640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -911,9 +919,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>713160</xdr:colOff>
+      <xdr:colOff>712800</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -927,8 +935,94 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8750160" y="1386000"/>
-          <a:ext cx="5819400" cy="4965120"/>
+          <a:off x="8748360" y="1386000"/>
+          <a:ext cx="5814360" cy="4964760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>108720</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>11880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>167400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Immagine 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect l="31975" t="15789" r="25680" b="12016"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7644240" y="921960"/>
+          <a:ext cx="7162560" cy="6481800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>500040</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>48960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>551880</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>116280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Immagine 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect l="31609" t="15937" r="26086" b="13038"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8035560" y="959040"/>
+          <a:ext cx="7155720" cy="6376680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -955,7 +1049,7 @@
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.11"/>
@@ -2163,7 +2257,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="13.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="12.66"/>
@@ -10025,16 +10119,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FF00A933"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="8.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="14.77"/>
@@ -10895,6 +10989,1762 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00A933"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="13.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="7" width="8.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>1141.311147</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>1221.506806</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>1.854138</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>2.037749</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>1134.759555</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>1365.009041</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>10.012263</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>29.706311</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>1658.587488</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>1467.185324</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>18.35469</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>27.297988</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>2167.106881</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>1611.881131</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>28.440477</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>32.069857</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>1.72084</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>1.795485</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>2058.811987</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>1100.877513</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>36.625696</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>37.891673</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>4.788928</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>10.292872</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>1995.833313</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>1491.397242</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>48.494172</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>48.803225</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>8.633759</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>13.435578</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>2165.351183</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>1568.257627</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>55.915615</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>47.819047</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>11.58237</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>16.759806</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>1.488848</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <v>1.802761</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>1995.889873</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <v>1531.987613</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>65.263074</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>53.89369</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>15.616589</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>18.403308</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>3.483808</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>6.156885</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <v>2310.008033</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>1616.002689</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>73.74015</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>56.054535</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <v>18.788987</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>21.455403</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>5.560868</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>8.07825</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <v>2438.651429</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <v>1282.993283</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <v>84.018748</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>60.573886</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <v>22.165447</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <v>22.678828</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>7.132985</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>10.067769</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C36" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D36" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" s="7" t="n">
+        <v>1.686536</v>
+      </c>
+      <c r="F36" s="7" t="n">
+        <v>2.039936</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7" t="n">
+        <v>2209.839573</v>
+      </c>
+      <c r="F37" s="7" t="n">
+        <v>1604.503753</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D38" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" s="7" t="n">
+        <v>93.928224</v>
+      </c>
+      <c r="F38" s="7" t="n">
+        <v>66.748466</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C39" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D39" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" s="7" t="n">
+        <v>25.169258</v>
+      </c>
+      <c r="F39" s="7" t="n">
+        <v>24.001011</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C40" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D40" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" s="7" t="n">
+        <v>9.757738</v>
+      </c>
+      <c r="F40" s="7" t="n">
+        <v>11.859901</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C41" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D41" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" s="7" t="n">
+        <v>2.765307</v>
+      </c>
+      <c r="F41" s="7" t="n">
+        <v>4.547437</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C42" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7" t="n">
+        <v>2215.641232</v>
+      </c>
+      <c r="F42" s="7" t="n">
+        <v>1293.163565</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D43" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" s="7" t="n">
+        <v>105.023592</v>
+      </c>
+      <c r="F43" s="7" t="n">
+        <v>69.971492</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C44" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D44" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7" t="n">
+        <v>28.695354</v>
+      </c>
+      <c r="F44" s="7" t="n">
+        <v>26.352579</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C45" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D45" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" s="7" t="n">
+        <v>10.99502</v>
+      </c>
+      <c r="F45" s="7" t="n">
+        <v>12.883288</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C46" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D46" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" s="7" t="n">
+        <v>4.299414</v>
+      </c>
+      <c r="F46" s="7" t="n">
+        <v>5.587903</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C47" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D47" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7" t="n">
+        <v>2024.785835</v>
+      </c>
+      <c r="F47" s="7" t="n">
+        <v>1091.110094</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C48" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D48" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" s="7" t="n">
+        <v>112.215499</v>
+      </c>
+      <c r="F48" s="7" t="n">
+        <v>72.971088</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C49" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" s="7" t="n">
+        <v>31.390099</v>
+      </c>
+      <c r="F49" s="7" t="n">
+        <v>29.940114</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C50" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D50" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E50" s="7" t="n">
+        <v>13.265178</v>
+      </c>
+      <c r="F50" s="7" t="n">
+        <v>15.641025</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C51" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D51" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" s="7" t="n">
+        <v>5.926499</v>
+      </c>
+      <c r="F51" s="7" t="n">
+        <v>6.904286</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C52" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D52" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E52" s="7" t="n">
+        <v>2.198278</v>
+      </c>
+      <c r="F52" s="7" t="n">
+        <v>2.789381</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00A933"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S29" activeCellId="0" sqref="S29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="13.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="7" width="8.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>1322.100886</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>1315.586996</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>1.71971</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>2.622798</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>1495.948852</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>1385.63873</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>10.017066</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>18.250015</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>1694.2909</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>1486.86977</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>11.263129</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>12.198399</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>1193.36626</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>1211.59967</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>15.629747</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>12.784496</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>1.023036</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>1.01457</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>4.962771</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>2.571876</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>20.385299</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>16.288217</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>3.942335</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>5.315402</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>723.405254</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>1010.131</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>25.532311</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>21.261315</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>6.634291</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>7.261857</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>1456.803313</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>1620.871652</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>30.497304</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>18.927853</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>8.173269</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>7.747636</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>1.500982</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <v>1.775785</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>1897.090778</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <v>1630.248044</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>35.880209</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>22.537427</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>10.916251</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>9.253971</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>2.910417</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>3.866057</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <v>1332.789183</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>1651.779105</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>41.165034</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>24.290345</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <v>13.178593</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>10.323877</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>4.874465</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>5.233073</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <v>1602.700762</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <v>2069.557492</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <v>44.611999</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>22.71227</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <v>15.339728</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <v>10.636614</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>6.29194</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>5.865058</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C36" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D36" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" s="7" t="n">
+        <v>1.249996</v>
+      </c>
+      <c r="F36" s="7" t="n">
+        <v>1.611078</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7" t="n">
+        <v>1550.150038</v>
+      </c>
+      <c r="F37" s="7" t="n">
+        <v>1740.796413</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D38" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" s="7" t="n">
+        <v>49.702092</v>
+      </c>
+      <c r="F38" s="7" t="n">
+        <v>25.21429</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C39" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D39" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" s="7" t="n">
+        <v>17.637245</v>
+      </c>
+      <c r="F39" s="7" t="n">
+        <v>12.232657</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C40" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D40" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" s="7" t="n">
+        <v>8.045955</v>
+      </c>
+      <c r="F40" s="7" t="n">
+        <v>7.246175</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C41" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D41" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" s="7" t="n">
+        <v>3.187259</v>
+      </c>
+      <c r="F41" s="7" t="n">
+        <v>3.72778</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C42" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7" t="n">
+        <v>1570.880812</v>
+      </c>
+      <c r="F42" s="7" t="n">
+        <v>1740.410506</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D43" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" s="7" t="n">
+        <v>54.625835</v>
+      </c>
+      <c r="F43" s="7" t="n">
+        <v>26.371077</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C44" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D44" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7" t="n">
+        <v>21.088913</v>
+      </c>
+      <c r="F44" s="7" t="n">
+        <v>13.884828</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C45" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D45" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" s="7" t="n">
+        <v>9.667998</v>
+      </c>
+      <c r="F45" s="7" t="n">
+        <v>8.081377</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C46" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D46" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" s="7" t="n">
+        <v>3.986854</v>
+      </c>
+      <c r="F46" s="7" t="n">
+        <v>4.257087</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C47" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D47" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7" t="n">
+        <v>1183.925975</v>
+      </c>
+      <c r="F47" s="7" t="n">
+        <v>1631.069839</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C48" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D48" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" s="7" t="n">
+        <v>59.642741</v>
+      </c>
+      <c r="F48" s="7" t="n">
+        <v>27.584371</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C49" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" s="7" t="n">
+        <v>23.065687</v>
+      </c>
+      <c r="F49" s="7" t="n">
+        <v>14.462927</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C50" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D50" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E50" s="7" t="n">
+        <v>11.329034</v>
+      </c>
+      <c r="F50" s="7" t="n">
+        <v>8.830166</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C51" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D51" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" s="7" t="n">
+        <v>5.314176</v>
+      </c>
+      <c r="F51" s="7" t="n">
+        <v>5.16415</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C52" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D52" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E52" s="7" t="n">
+        <v>2.434533</v>
+      </c>
+      <c r="F52" s="7" t="n">
+        <v>3.365654</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/stats/statistics.xlsx
+++ b/stats/statistics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery time" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="Elves waiting time" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Elves waiting time (2th)" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Elves waiting time rigorous (3t" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Elves waiting time rigorous (4t" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="22">
   <si>
     <r>
       <rPr>
@@ -194,10 +195,13 @@
     <t xml:space="preserve">Std.Dev.</t>
   </si>
   <si>
-    <t xml:space="preserve">Elves waiting time in ms (santa_v3) 2th</t>
+    <t xml:space="preserve">Elves waiting time in ms (santa_v3) 2nd</t>
   </si>
   <si>
     <t xml:space="preserve">Elves waiting time in ms (santa_v3) 3th (rigorous)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elves waiting time in ms (santa_v3) 4th (rigorous)</t>
   </si>
 </sst>
 </file>
@@ -519,7 +523,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -718,11 +722,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="58598944"/>
-        <c:axId val="64858855"/>
+        <c:axId val="1993770"/>
+        <c:axId val="12327906"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58598944"/>
+        <c:axId val="1993770"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,12 +802,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64858855"/>
+        <c:crossAx val="12327906"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64858855"/>
+        <c:axId val="12327906"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -845,7 +849,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58598944"/>
+        <c:crossAx val="1993770"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -884,9 +888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>586080</xdr:colOff>
+      <xdr:colOff>585360</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -895,7 +899,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2666160" y="1276560"/>
-        <a:ext cx="13075560" cy="3599640"/>
+        <a:ext cx="13074840" cy="3598920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -919,9 +923,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>712800</xdr:colOff>
+      <xdr:colOff>712080</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -936,7 +940,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8748360" y="1386000"/>
-          <a:ext cx="5814360" cy="4964760"/>
+          <a:ext cx="5813640" cy="4964040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -962,9 +966,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>167400</xdr:colOff>
+      <xdr:colOff>166680</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -979,7 +983,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7644240" y="921960"/>
-          <a:ext cx="7162560" cy="6481800"/>
+          <a:ext cx="7161840" cy="6481080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1005,9 +1009,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>551880</xdr:colOff>
+      <xdr:colOff>551160</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1022,7 +1026,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8035560" y="959040"/>
-          <a:ext cx="7155720" cy="6376680"/>
+          <a:ext cx="7155000" cy="6375960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>344880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>363960</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Immagine 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect l="31732" t="16911" r="26155" b="12272"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7880400" y="948600"/>
+          <a:ext cx="7122960" cy="6357600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11002,8 +11049,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11880,8 +11927,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S29" activeCellId="0" sqref="S29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12736,6 +12783,884 @@
       </c>
       <c r="F52" s="7" t="n">
         <v>3.365654</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00A933"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="13.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="7" width="8.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>1321.347177</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>1414.995024</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>1.261619</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>0.908482</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>467.692984</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>500.508528</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>5.822434</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>9.825381</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>1260.263382</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>1413.002981</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>10.790536</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>11.997317</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>1452.031174</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>1827.365493</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>15.655547</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>13.422651</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>1.129717</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>1.247923</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>618.820921</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>797.154628</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>20.273768</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>16.201018</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>3.275963</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>4.708161</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>2484.378742</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>2480.668569</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>24.978299</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>17.80725</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>6.230259</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>6.620655</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>1710.938027</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>2830.422592</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>29.78928</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>18.863705</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>8.163031</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>7.303228</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>1.067104</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <v>1.165246</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>1540.409256</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <v>1519.743379</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>35.253205</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>21.377057</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>10.919178</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>9.294152</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>2.776622</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>3.77135</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <v>1390.385783</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>1494.831011</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>39.35159</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>21.834218</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <v>12.879296</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>10.153548</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>5.009321</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>5.194371</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <v>1223.501487</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <v>1217.509154</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <v>44.375716</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>23.194224</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <v>15.212466</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <v>10.812124</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>5.738445</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>5.60358</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C36" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D36" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" s="7" t="n">
+        <v>1.667111</v>
+      </c>
+      <c r="F36" s="7" t="n">
+        <v>2.178645</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7" t="n">
+        <v>2181.547347</v>
+      </c>
+      <c r="F37" s="7" t="n">
+        <v>1850.848865</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D38" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" s="7" t="n">
+        <v>49.606334</v>
+      </c>
+      <c r="F38" s="7" t="n">
+        <v>25.535634</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C39" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D39" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" s="7" t="n">
+        <v>17.767784</v>
+      </c>
+      <c r="F39" s="7" t="n">
+        <v>12.079856</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C40" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D40" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" s="7" t="n">
+        <v>8.312509</v>
+      </c>
+      <c r="F40" s="7" t="n">
+        <v>7.143249</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C41" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D41" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" s="7" t="n">
+        <v>2.717995</v>
+      </c>
+      <c r="F41" s="7" t="n">
+        <v>3.392458</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C42" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7" t="n">
+        <v>1393.541167</v>
+      </c>
+      <c r="F42" s="7" t="n">
+        <v>1445.912508</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D43" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" s="7" t="n">
+        <v>55.309852</v>
+      </c>
+      <c r="F43" s="7" t="n">
+        <v>27.69572</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C44" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D44" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7" t="n">
+        <v>20.13007</v>
+      </c>
+      <c r="F44" s="7" t="n">
+        <v>13.001252</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C45" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D45" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" s="7" t="n">
+        <v>9.489327</v>
+      </c>
+      <c r="F45" s="7" t="n">
+        <v>7.831651</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C46" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D46" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" s="7" t="n">
+        <v>3.588476</v>
+      </c>
+      <c r="F46" s="7" t="n">
+        <v>3.888921</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C47" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D47" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7" t="n">
+        <v>1316.917909</v>
+      </c>
+      <c r="F47" s="7" t="n">
+        <v>1473.399067</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C48" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D48" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" s="7" t="n">
+        <v>59.201434</v>
+      </c>
+      <c r="F48" s="7" t="n">
+        <v>27.695815</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C49" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" s="7" t="n">
+        <v>22.157321</v>
+      </c>
+      <c r="F49" s="7" t="n">
+        <v>13.527673</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C50" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D50" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E50" s="7" t="n">
+        <v>10.887713</v>
+      </c>
+      <c r="F50" s="7" t="n">
+        <v>8.543813</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C51" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D51" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" s="7" t="n">
+        <v>4.741362</v>
+      </c>
+      <c r="F51" s="7" t="n">
+        <v>4.554367</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C52" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D52" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E52" s="7" t="n">
+        <v>2.103534</v>
+      </c>
+      <c r="F52" s="7" t="n">
+        <v>2.836322</v>
       </c>
     </row>
   </sheetData>

--- a/stats/statistics.xlsx
+++ b/stats/statistics.xlsx
@@ -5,15 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery time" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="SC busy probability" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Elves waiting time" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Elves waiting time (2th)" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Elves waiting time rigorous (3t" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Elves waiting time (2nd)" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Elves waiting time rigorous (3r" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Elves waiting time rigorous (4t" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Elves waiting time (new)" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Elves waiting time (new 2nd)" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="24">
   <si>
     <r>
       <rPr>
@@ -198,10 +200,16 @@
     <t xml:space="preserve">Elves waiting time in ms (santa_v3) 2nd</t>
   </si>
   <si>
-    <t xml:space="preserve">Elves waiting time in ms (santa_v3) 3th (rigorous)</t>
+    <t xml:space="preserve">Elves waiting time in ms (santa_v3) 3rd (rigorous)</t>
   </si>
   <si>
     <t xml:space="preserve">Elves waiting time in ms (santa_v3) 4th (rigorous)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elves waiting time in ms (santa_v3) new method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elves waiting time in ms (santa_v3) new method (2nd)</t>
   </si>
 </sst>
 </file>
@@ -523,7 +531,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -722,11 +730,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1993770"/>
-        <c:axId val="12327906"/>
+        <c:axId val="30062196"/>
+        <c:axId val="5606045"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1993770"/>
+        <c:axId val="30062196"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,12 +810,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12327906"/>
+        <c:crossAx val="5606045"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12327906"/>
+        <c:axId val="5606045"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,7 +857,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1993770"/>
+        <c:crossAx val="30062196"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -888,9 +896,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>585360</xdr:colOff>
+      <xdr:colOff>584640</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -899,7 +907,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2666160" y="1276560"/>
-        <a:ext cx="13074840" cy="3598920"/>
+        <a:ext cx="13074120" cy="3598200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -923,9 +931,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>712080</xdr:colOff>
+      <xdr:colOff>711360</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -940,7 +948,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8748360" y="1386000"/>
-          <a:ext cx="5813640" cy="4964040"/>
+          <a:ext cx="5812920" cy="4963320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -966,9 +974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>166680</xdr:colOff>
+      <xdr:colOff>165960</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -983,7 +991,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7644240" y="921960"/>
-          <a:ext cx="7161840" cy="6481080"/>
+          <a:ext cx="7161120" cy="6480360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1009,9 +1017,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>551160</xdr:colOff>
+      <xdr:colOff>550440</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1026,7 +1034,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8035560" y="959040"/>
-          <a:ext cx="7155000" cy="6375960"/>
+          <a:ext cx="7154280" cy="6375240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1052,9 +1060,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>363960</xdr:colOff>
+      <xdr:colOff>363240</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1069,7 +1077,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7880400" y="948600"/>
-          <a:ext cx="7122960" cy="6357600"/>
+          <a:ext cx="7122240" cy="6356880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11049,7 +11057,7 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -11927,8 +11935,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12805,7 +12813,7 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -13672,6 +13680,1346 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00A933"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="13.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="7" width="8.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>1.116585</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>1.71867</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>9.691883</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>23.002381</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>20.159838</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>32.976338</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>29.797482</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>37.384731</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>2.136947</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>9.806185</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>37.576571</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>44.426933</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>4.919015</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>13.660003</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>46.717544</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>49.516728</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>9.564451</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>20.664585</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>55.372216</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>54.00791</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>12.587055</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>24.089956</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>2.414858</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>6.995157</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>63.601265</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>57.289086</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>16.816768</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>26.55756</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>4.419219</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>9.85448</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>72.372034</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>65.186834</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>18.711345</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>24.2419</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>6.009422</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>10.912823</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>88.302031</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <v>68.295671</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>23.87948</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <v>29.014832</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>6.836372</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>10.611419</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>1.771297</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>4.496171</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>1.001308</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>1.146246</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <v>25.132017</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>26.479265</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>10.128947</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>14.591638</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <v>3.757008</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>7.127872</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>104.633527</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>75.787932</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <v>29.533914</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <v>30.668972</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <v>10.830584</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>13.388969</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <v>4.996883</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <v>7.85802</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>113.716335</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>79.178565</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C36" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" s="7" t="n">
+        <v>32.809769</v>
+      </c>
+      <c r="F36" s="7" t="n">
+        <v>32.539969</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" s="7" t="n">
+        <v>13.099533</v>
+      </c>
+      <c r="F37" s="7" t="n">
+        <v>16.818577</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" s="7" t="n">
+        <v>6.488224</v>
+      </c>
+      <c r="F38" s="7" t="n">
+        <v>9.786252</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C39" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E39" s="7" t="n">
+        <v>5.011809</v>
+      </c>
+      <c r="F39" s="7" t="n">
+        <v>6.989672</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00A933"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="13.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="7" width="8.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>0.872886</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>1.685175</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>4.675261</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>9.625546</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>10.155966</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>17.172438</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>13.88437</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>12.984621</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>1.313327</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>3.80878</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>16.046296</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>15.176679</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>3.675967</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>6.871002</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>21.874806</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>16.749837</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>6.705474</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>9.587715</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>30.607605</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>22.114028</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>7.136988</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>6.919241</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>1.866901</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>3.817738</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>31.861316</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>23.220306</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>10.813848</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>11.109173</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>3.514729</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>5.306336</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>38.26829</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>25.158647</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>12.862207</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>12.172917</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>4.401246</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>5.76503</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>37.102387</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <v>22.360512</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>12.853453</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <v>9.01225</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>6.694389</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>8.327759</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>1.509729</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>3.000831</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>0.662544</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>0.661502</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <v>14.237603</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>13.251606</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>7.47134</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>7.412559</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <v>2.933423</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>4.19829</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>1.745846</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>2.350053</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <v>16.875137</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <v>13.14371</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <v>9.442223</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>8.908111</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <v>3.500865</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <v>4.230711</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>2.726904</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>3.043257</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C36" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" s="7" t="n">
+        <v>18.86364</v>
+      </c>
+      <c r="F36" s="7" t="n">
+        <v>14.187113</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" s="7" t="n">
+        <v>10.860237</v>
+      </c>
+      <c r="F37" s="7" t="n">
+        <v>9.359384</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" s="7" t="n">
+        <v>5.097559</v>
+      </c>
+      <c r="F38" s="7" t="n">
+        <v>5.335727</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C39" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E39" s="7" t="n">
+        <v>3.606896</v>
+      </c>
+      <c r="F39" s="7" t="n">
+        <v>3.472637</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 

--- a/stats/statistics.xlsx
+++ b/stats/statistics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery time" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,15 @@
     <sheet name="Elves waiting time rigorous (4t" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Elves waiting time (new)" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Elves waiting time (new 2nd)" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Elves waiting time (new 3rd)" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Elves waiting time (new 4th)" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Elves waiting time (new 5th)" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'Elves waiting time (new 3rd)'!$B$4:$F$39</definedName>
+    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Elves waiting time (new 4th)'!$B$4:$F$39</definedName>
+    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Elves waiting time (new 5th)'!$B$4:$F$39</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -27,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="32">
   <si>
     <r>
       <rPr>
@@ -209,7 +217,31 @@
     <t xml:space="preserve">Elves waiting time in ms (santa_v3) new method</t>
   </si>
   <si>
+    <t xml:space="preserve">#santa = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#santa &gt; 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRECISION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_EQ_AVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATCH_SIZE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elves waiting time in ms (santa_v3) new method (2nd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elves waiting time in ms (santa_v3) new method (3rd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elves waiting time in ms (santa_v3) new method (4th)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elves waiting time in ms (santa_v3) new method (5th)</t>
   </si>
 </sst>
 </file>
@@ -319,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -331,6 +363,34 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -362,7 +422,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -447,6 +507,26 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +536,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -464,6 +544,21 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3D3D3D"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -531,7 +626,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -580,7 +675,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SC busy probability'!$B$5</c:f>
+              <c:f>'SC busy probability'!$B$5:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -730,11 +825,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="30062196"/>
-        <c:axId val="5606045"/>
+        <c:axId val="65870924"/>
+        <c:axId val="83374616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30062196"/>
+        <c:axId val="65870924"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,12 +905,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5606045"/>
+        <c:crossAx val="83374616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="5606045"/>
+        <c:axId val="83374616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -857,7 +952,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30062196"/>
+        <c:crossAx val="65870924"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -915,6 +1010,49 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>551520</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>456840</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Immagine 9" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect l="15674" t="21293" r="17956" b="12607"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8087040" y="1776600"/>
+          <a:ext cx="5067720" cy="3785040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1092,6 +1230,178 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>325080</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>545760</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>87120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Immagine 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect l="18135" t="21284" r="21401" b="11934"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7860600" y="1923840"/>
+          <a:ext cx="4593960" cy="3805200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>641880</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>132840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>23400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>116280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Immagine 6" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect l="13656" t="18176" r="17618" b="7940"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8177400" y="1743840"/>
+          <a:ext cx="4543920" cy="3663720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>46440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>241200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>145800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Immagine 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect l="14210" t="21727" r="17630" b="12377"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7726320" y="1832760"/>
+          <a:ext cx="5212800" cy="3779640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>296280</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>21240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>24120</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>87120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Immagine 8" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect l="16505" t="21506" r="18990" b="12607"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7831800" y="1632240"/>
+          <a:ext cx="4890240" cy="3746160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -2297,6 +2607,1442 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00A933"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M53"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="13.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="7" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="11.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="7" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="7" width="11.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="7" width="8.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="L4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>0.58237</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>0.488314</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="L5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="23" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>4.718786</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>9.279896</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="L6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>9.390816</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>11.579067</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="L7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>13.2519</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>11.644654</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>1.142779</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>3.392162</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>17.690132</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>17.312241</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>3.895337</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>7.577791</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>24.200522</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>19.128649</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>6.187291</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>9.136513</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>26.831421</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>19.326871</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>7.767971</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>8.005658</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>0.918862</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>2.070461</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>30.074699</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>20.363199</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>9.187145</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>8.010292</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>3.442741</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>5.934773</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>38.50321</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>26.822735</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>12.309038</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>10.772762</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>4.740399</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>6.045635</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>40.553036</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <v>24.866147</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>13.648238</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <v>9.976737</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>5.043631</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>4.945762</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>1.772948</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>2.815369</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>44.827165</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>28.830463</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <v>17.272387</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>13.940442</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>6.374206</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>5.757725</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <v>2.168555</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>3.034325</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>47.55321</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>29.219473</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <v>18.952534</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <v>13.906872</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <v>8.899789</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>7.59483</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <v>3.99146</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <v>4.50828</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>56.504906</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>31.463195</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C36" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" s="7" t="n">
+        <v>20.995658</v>
+      </c>
+      <c r="F36" s="7" t="n">
+        <v>14.630066</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" s="7" t="n">
+        <v>10.058901</v>
+      </c>
+      <c r="F37" s="7" t="n">
+        <v>8.298485</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" s="7" t="n">
+        <v>3.806198</v>
+      </c>
+      <c r="F38" s="7" t="n">
+        <v>3.600834</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C39" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E39" s="7" t="n">
+        <v>1.822419</v>
+      </c>
+      <c r="F39" s="7" t="n">
+        <v>2.647261</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <autoFilter ref="B4:F39"/>
+  <mergeCells count="2">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00A933"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M53"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="13.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="7" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="11.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="7" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="7" width="11.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="7" width="8.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="L4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>0.670482</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>0.545713</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="L5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="23" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>5.038427</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>9.717148</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="L6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>9.153264</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>11.718822</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="L7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>13.495002</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>12.209751</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>1.401786</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>4.513018</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>16.98325</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>15.339133</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>2.899659</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>4.819167</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>22.480203</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>21.263739</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>6.173838</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>8.688761</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>26.815981</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>19.359225</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>8.172039</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>9.1544</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>0.764964</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>1.305641</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>30.29574</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>22.351062</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>10.19038</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>10.068435</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>2.983916</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>4.665606</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>34.478584</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>24.499494</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>12.375259</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>11.152266</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>3.856832</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>4.421627</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>40.41394</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <v>23.259567</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>12.89869</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <v>8.96348</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>5.521215</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>5.487234</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>1.745288</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>2.852443</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>45.509823</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>29.602163</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <v>16.79624</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>13.443413</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>7.555887</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>7.117481</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <v>2.276543</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>3.202349</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>46.365095</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>29.149902</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <v>18.869955</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <v>13.522598</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <v>8.780176</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>7.450141</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <v>3.416651</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <v>3.892406</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>52.978868</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>31.666152</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C36" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" s="7" t="n">
+        <v>21.396818</v>
+      </c>
+      <c r="F36" s="7" t="n">
+        <v>15.433181</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" s="7" t="n">
+        <v>14.509373</v>
+      </c>
+      <c r="F37" s="7" t="n">
+        <v>16.706616</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" s="7" t="n">
+        <v>8.216209</v>
+      </c>
+      <c r="F38" s="7" t="n">
+        <v>9.287472</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C39" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E39" s="7" t="n">
+        <v>4.092766</v>
+      </c>
+      <c r="F39" s="7" t="n">
+        <v>8.225176</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <autoFilter ref="B4:F39"/>
+  <mergeCells count="2">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12813,7 +14559,7 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -13689,10 +15435,10 @@
     <tabColor rgb="FF00A933"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="P17" activeCellId="0" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13703,7 +15449,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="13.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="7" width="8.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="7" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="11.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="7" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="7" width="11.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="7" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13732,6 +15482,14 @@
       <c r="F4" s="20" t="s">
         <v>18</v>
       </c>
+      <c r="I4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="L4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="n">
@@ -13749,6 +15507,16 @@
       <c r="F5" s="7" t="n">
         <v>1.71867</v>
       </c>
+      <c r="I5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="L5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="23" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="n">
@@ -13766,6 +15534,16 @@
       <c r="F6" s="7" t="n">
         <v>23.002381</v>
       </c>
+      <c r="I6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="L6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="n">
@@ -13783,6 +15561,16 @@
       <c r="F7" s="7" t="n">
         <v>32.976338</v>
       </c>
+      <c r="I7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="L7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="25" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="n">
@@ -14326,6 +16114,725 @@
       </c>
       <c r="F39" s="7" t="n">
         <v>6.989672</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00A933"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M53"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P17" activeCellId="0" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="13.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="7" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="11.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="7" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="7" width="11.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="7" width="8.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="L4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>0.872886</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>1.685175</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="L5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="23" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>4.675261</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>9.625546</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="L6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>10.155966</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>17.172438</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="L7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>13.88437</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>12.984621</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>1.313327</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>3.80878</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>16.046296</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>15.176679</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>3.675967</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>6.871002</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>21.874806</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>16.749837</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>6.705474</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>9.587715</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>30.607605</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>22.114028</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>7.136988</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>6.919241</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>1.866901</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>3.817738</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>31.861316</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>23.220306</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>10.813848</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>11.109173</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>3.514729</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>5.306336</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>38.26829</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>25.158647</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>12.862207</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>12.172917</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>4.401246</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>5.76503</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>37.102387</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <v>22.360512</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>12.853453</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <v>9.01225</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>6.694389</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>8.327759</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>1.509729</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>3.000831</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>0.662544</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>0.661502</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <v>14.237603</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>13.251606</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>7.47134</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>7.412559</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <v>2.933423</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>4.19829</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>1.745846</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>2.350053</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <v>16.875137</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <v>13.14371</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <v>9.442223</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>8.908111</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <v>3.500865</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <v>4.230711</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>2.726904</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>3.043257</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C36" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" s="7" t="n">
+        <v>18.86364</v>
+      </c>
+      <c r="F36" s="7" t="n">
+        <v>14.187113</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" s="7" t="n">
+        <v>10.860237</v>
+      </c>
+      <c r="F37" s="7" t="n">
+        <v>9.359384</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" s="7" t="n">
+        <v>5.097559</v>
+      </c>
+      <c r="F38" s="7" t="n">
+        <v>5.335727</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C39" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E39" s="7" t="n">
+        <v>3.606896</v>
+      </c>
+      <c r="F39" s="7" t="n">
+        <v>3.472637</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -14343,6 +16850,10 @@
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -14350,19 +16861,20 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF00A933"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P17" activeCellId="0" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14373,12 +16885,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="13.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="7" width="8.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="7" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="11.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="7" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="7" width="11.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="7" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14402,6 +16918,14 @@
       <c r="F4" s="20" t="s">
         <v>18</v>
       </c>
+      <c r="I4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="L4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="n">
@@ -14414,10 +16938,20 @@
         <v>2</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0.872886</v>
+        <v>0.706794</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>1.685175</v>
+        <v>1.059611</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="L5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="23" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14431,10 +16965,20 @@
         <v>2</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>4.675261</v>
+        <v>4.874093</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>9.625546</v>
+        <v>9.49598</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="L6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="23" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14448,10 +16992,20 @@
         <v>2</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>10.155966</v>
+        <v>9.655038</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>17.172438</v>
+        <v>12.628334</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="L7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="25" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14465,10 +17019,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>13.88437</v>
+        <v>13.754072</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>12.984621</v>
+        <v>12.059353</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14482,10 +17036,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>1.313327</v>
+        <v>1.533892</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>3.80878</v>
+        <v>4.951053</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14499,10 +17053,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>16.046296</v>
+        <v>16.828085</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>15.176679</v>
+        <v>15.165653</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14516,10 +17070,10 @@
         <v>3</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>3.675967</v>
+        <v>3.816018</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>6.871002</v>
+        <v>6.931709</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14533,10 +17087,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>21.874806</v>
+        <v>25.00655</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>16.749837</v>
+        <v>20.970065</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14550,10 +17104,10 @@
         <v>3</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>6.705474</v>
+        <v>5.955527</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>9.587715</v>
+        <v>9.005846</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14567,10 +17121,10 @@
         <v>2</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>30.607605</v>
+        <v>26.61135</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>22.114028</v>
+        <v>19.235814</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14584,10 +17138,10 @@
         <v>3</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>7.136988</v>
+        <v>8.287722</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>6.919241</v>
+        <v>9.230024</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14601,10 +17155,10 @@
         <v>4</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>1.866901</v>
+        <v>0.683645</v>
       </c>
       <c r="F16" s="7" t="n">
-        <v>3.817738</v>
+        <v>1.161592</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14618,10 +17172,10 @@
         <v>2</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>31.861316</v>
+        <v>28.560703</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>23.220306</v>
+        <v>20.558641</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14635,10 +17189,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>10.813848</v>
+        <v>9.847958</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>11.109173</v>
+        <v>9.61471</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14652,10 +17206,10 @@
         <v>4</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>3.514729</v>
+        <v>2.246976</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>5.306336</v>
+        <v>3.471343</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14669,10 +17223,10 @@
         <v>2</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>38.26829</v>
+        <v>36.893986</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>25.158647</v>
+        <v>26.732767</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14686,10 +17240,10 @@
         <v>3</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>12.862207</v>
+        <v>12.55437</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>12.172917</v>
+        <v>11.529674</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14703,10 +17257,10 @@
         <v>4</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>4.401246</v>
+        <v>4.716578</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>5.76503</v>
+        <v>5.907912</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14720,10 +17274,10 @@
         <v>2</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>37.102387</v>
+        <v>41.276606</v>
       </c>
       <c r="F23" s="7" t="n">
-        <v>22.360512</v>
+        <v>24.952458</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14737,10 +17291,10 @@
         <v>3</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>12.853453</v>
+        <v>13.437544</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>9.01225</v>
+        <v>10.143124</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14754,10 +17308,10 @@
         <v>4</v>
       </c>
       <c r="E25" s="7" t="n">
-        <v>6.694389</v>
+        <v>6.218171</v>
       </c>
       <c r="F25" s="7" t="n">
-        <v>8.327759</v>
+        <v>6.023015</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14771,10 +17325,10 @@
         <v>5</v>
       </c>
       <c r="E26" s="7" t="n">
-        <v>1.509729</v>
+        <v>0.849036</v>
       </c>
       <c r="F26" s="7" t="n">
-        <v>3.000831</v>
+        <v>1.532762</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14788,10 +17342,10 @@
         <v>2</v>
       </c>
       <c r="E27" s="7" t="n">
-        <v>0.662544</v>
+        <v>43.309315</v>
       </c>
       <c r="F27" s="7" t="n">
-        <v>0.661502</v>
+        <v>30.66954</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14805,10 +17359,10 @@
         <v>3</v>
       </c>
       <c r="E28" s="7" t="n">
-        <v>14.237603</v>
+        <v>15.535762</v>
       </c>
       <c r="F28" s="7" t="n">
-        <v>13.251606</v>
+        <v>10.968341</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14822,10 +17376,10 @@
         <v>4</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>7.47134</v>
+        <v>7.784764</v>
       </c>
       <c r="F29" s="7" t="n">
-        <v>7.412559</v>
+        <v>7.667877</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14839,10 +17393,10 @@
         <v>5</v>
       </c>
       <c r="E30" s="7" t="n">
-        <v>2.933423</v>
+        <v>2.973211</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>4.19829</v>
+        <v>4.015289</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14856,10 +17410,10 @@
         <v>2</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>1.745846</v>
+        <v>48.865411</v>
       </c>
       <c r="F31" s="7" t="n">
-        <v>2.350053</v>
+        <v>28.945463</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14873,10 +17427,10 @@
         <v>3</v>
       </c>
       <c r="E32" s="7" t="n">
-        <v>16.875137</v>
+        <v>18.655031</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>13.14371</v>
+        <v>13.47812</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14890,10 +17444,10 @@
         <v>4</v>
       </c>
       <c r="E33" s="7" t="n">
-        <v>9.442223</v>
+        <v>8.447962</v>
       </c>
       <c r="F33" s="7" t="n">
-        <v>8.908111</v>
+        <v>7.151344</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14907,10 +17461,10 @@
         <v>5</v>
       </c>
       <c r="E34" s="7" t="n">
-        <v>3.500865</v>
+        <v>4.172554</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>4.230711</v>
+        <v>4.568357</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14924,10 +17478,10 @@
         <v>2</v>
       </c>
       <c r="E35" s="7" t="n">
-        <v>2.726904</v>
+        <v>54.641088</v>
       </c>
       <c r="F35" s="7" t="n">
-        <v>3.043257</v>
+        <v>31.850396</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14941,10 +17495,10 @@
         <v>3</v>
       </c>
       <c r="E36" s="7" t="n">
-        <v>18.86364</v>
+        <v>20.233304</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>14.187113</v>
+        <v>13.41295</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14958,10 +17512,10 @@
         <v>4</v>
       </c>
       <c r="E37" s="7" t="n">
-        <v>10.860237</v>
+        <v>9.398896</v>
       </c>
       <c r="F37" s="7" t="n">
-        <v>9.359384</v>
+        <v>7.222219</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14975,10 +17529,10 @@
         <v>5</v>
       </c>
       <c r="E38" s="7" t="n">
-        <v>5.097559</v>
+        <v>4.979409</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>5.335727</v>
+        <v>4.743898</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14992,10 +17546,10 @@
         <v>6</v>
       </c>
       <c r="E39" s="7" t="n">
-        <v>3.606896</v>
+        <v>1.329165</v>
       </c>
       <c r="F39" s="7" t="n">
-        <v>3.472637</v>
+        <v>2.122292</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -15013,6 +17567,11 @@
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <autoFilter ref="B4:F39"/>
+  <mergeCells count="2">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -15020,6 +17579,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/stats/statistics.xlsx
+++ b/stats/statistics.xlsx
@@ -5,26 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery time" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="SC busy probability" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Elves waiting time" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Elves waiting time (2nd)" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Elves waiting time rigorous (3r" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Elves waiting time rigorous (4t" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Elves waiting time (new)" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Elves waiting time (new 2nd)" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Elves waiting time (new 3rd)" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Elves waiting time (new 4th)" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Elves waiting time (new 5th)" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'Elves waiting time (new 3rd)'!$B$4:$F$39</definedName>
-    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Elves waiting time (new 4th)'!$B$4:$F$39</definedName>
-    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Elves waiting time (new 5th)'!$B$4:$F$39</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -35,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="20">
   <si>
     <r>
       <rPr>
@@ -205,43 +192,7 @@
     <t xml:space="preserve">Std.Dev.</t>
   </si>
   <si>
-    <t xml:space="preserve">Elves waiting time in ms (santa_v3) 2nd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elves waiting time in ms (santa_v3) 3rd (rigorous)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elves waiting time in ms (santa_v3) 4th (rigorous)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elves waiting time in ms (santa_v3) new method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#santa = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#santa &gt; 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRECISION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N_EQ_AVG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATCH_SIZE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elves waiting time in ms (santa_v3) new method (2nd)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elves waiting time in ms (santa_v3) new method (3rd)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elves waiting time in ms (santa_v3) new method (4th)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elves waiting time in ms (santa_v3) new method (5th)</t>
+    <t xml:space="preserve">Num. Vals.</t>
   </si>
 </sst>
 </file>
@@ -351,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -363,34 +314,6 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -422,7 +345,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -499,32 +422,16 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -536,7 +443,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -544,21 +451,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF6D6D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3D3D3D"/>
-          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -626,7 +518,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -825,11 +717,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="65870924"/>
-        <c:axId val="83374616"/>
+        <c:axId val="71710498"/>
+        <c:axId val="15121270"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65870924"/>
+        <c:axId val="71710498"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -905,12 +797,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83374616"/>
+        <c:crossAx val="15121270"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83374616"/>
+        <c:axId val="15121270"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,7 +844,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65870924"/>
+        <c:crossAx val="71710498"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -991,9 +883,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>584640</xdr:colOff>
+      <xdr:colOff>584280</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>140400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1002,7 +894,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2666160" y="1276560"/>
-        <a:ext cx="13074120" cy="3598200"/>
+        <a:ext cx="13073760" cy="3597840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1015,63 +907,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>551520</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>165600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>456840</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Immagine 9" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:srcRect l="15674" t="21293" r="17956" b="12607"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8087040" y="1776600"/>
-          <a:ext cx="5067720" cy="3785040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>423360</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:colOff>260640</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>711360</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>285480</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1080,314 +929,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="32858" t="17665" r="24705" b="14121"/>
+        <a:srcRect l="21734" t="19734" r="8963" b="11040"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8748360" y="1386000"/>
-          <a:ext cx="5812920" cy="4963320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>108720</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>165960</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Immagine 2" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:srcRect l="31975" t="15789" r="25680" b="12016"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7644240" y="921960"/>
-          <a:ext cx="7161120" cy="6480360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>500040</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>48960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>550440</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Immagine 3" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:srcRect l="31609" t="15937" r="26086" b="13038"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8035560" y="959040"/>
-          <a:ext cx="7154280" cy="6375240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>344880</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>363240</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Immagine 4" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:srcRect l="31732" t="16911" r="26155" b="12272"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7880400" y="948600"/>
-          <a:ext cx="7122240" cy="6356880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>325080</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>545760</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Immagine 5" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:srcRect l="18135" t="21284" r="21401" b="11934"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7860600" y="1923840"/>
-          <a:ext cx="4593960" cy="3805200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>641880</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>23400</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Immagine 6" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:srcRect l="13656" t="18176" r="17618" b="7940"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8177400" y="1743840"/>
-          <a:ext cx="4543920" cy="3663720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>241200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Immagine 7" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:srcRect l="14210" t="21727" r="17630" b="12377"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7726320" y="1832760"/>
-          <a:ext cx="5212800" cy="3779640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>296280</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>24120</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Immagine 8" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:srcRect l="16505" t="21506" r="18990" b="12607"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7831800" y="1632240"/>
-          <a:ext cx="4890240" cy="3746160"/>
+          <a:off x="8632440" y="1481400"/>
+          <a:ext cx="5550120" cy="4157640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2610,1442 +2158,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF00A933"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M53"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="14.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="13.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="7" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="11.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="7" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="7" width="11.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="7" width="8.88"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="L4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>0.58237</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <v>0.488314</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="23"/>
-      <c r="L5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="23" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>4.718786</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>9.279896</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="23"/>
-      <c r="L6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>9.390816</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>11.579067</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="L7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="25" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>13.2519</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>11.644654</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>1.142779</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>3.392162</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>17.690132</v>
-      </c>
-      <c r="F10" s="7" t="n">
-        <v>17.312241</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="7" t="n">
-        <v>3.895337</v>
-      </c>
-      <c r="F11" s="7" t="n">
-        <v>7.577791</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7" t="n">
-        <v>24.200522</v>
-      </c>
-      <c r="F12" s="7" t="n">
-        <v>19.128649</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>6.187291</v>
-      </c>
-      <c r="F13" s="7" t="n">
-        <v>9.136513</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>26.831421</v>
-      </c>
-      <c r="F14" s="7" t="n">
-        <v>19.326871</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="7" t="n">
-        <v>7.767971</v>
-      </c>
-      <c r="F15" s="7" t="n">
-        <v>8.005658</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>0.918862</v>
-      </c>
-      <c r="F16" s="7" t="n">
-        <v>2.070461</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>30.074699</v>
-      </c>
-      <c r="F17" s="7" t="n">
-        <v>20.363199</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D18" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>9.187145</v>
-      </c>
-      <c r="F18" s="7" t="n">
-        <v>8.010292</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D19" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" s="7" t="n">
-        <v>3.442741</v>
-      </c>
-      <c r="F19" s="7" t="n">
-        <v>5.934773</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D20" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>38.50321</v>
-      </c>
-      <c r="F20" s="7" t="n">
-        <v>26.822735</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>12.309038</v>
-      </c>
-      <c r="F21" s="7" t="n">
-        <v>10.772762</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D22" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v>4.740399</v>
-      </c>
-      <c r="F22" s="7" t="n">
-        <v>6.045635</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C23" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D23" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="7" t="n">
-        <v>40.553036</v>
-      </c>
-      <c r="F23" s="7" t="n">
-        <v>24.866147</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C24" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" s="7" t="n">
-        <v>13.648238</v>
-      </c>
-      <c r="F24" s="7" t="n">
-        <v>9.976737</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C25" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D25" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E25" s="7" t="n">
-        <v>5.043631</v>
-      </c>
-      <c r="F25" s="7" t="n">
-        <v>4.945762</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C26" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D26" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E26" s="7" t="n">
-        <v>1.772948</v>
-      </c>
-      <c r="F26" s="7" t="n">
-        <v>2.815369</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C27" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D27" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" s="7" t="n">
-        <v>44.827165</v>
-      </c>
-      <c r="F27" s="7" t="n">
-        <v>28.830463</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C28" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D28" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" s="7" t="n">
-        <v>17.272387</v>
-      </c>
-      <c r="F28" s="7" t="n">
-        <v>13.940442</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C29" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D29" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E29" s="7" t="n">
-        <v>6.374206</v>
-      </c>
-      <c r="F29" s="7" t="n">
-        <v>5.757725</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C30" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D30" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E30" s="7" t="n">
-        <v>2.168555</v>
-      </c>
-      <c r="F30" s="7" t="n">
-        <v>3.034325</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C31" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D31" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E31" s="7" t="n">
-        <v>47.55321</v>
-      </c>
-      <c r="F31" s="7" t="n">
-        <v>29.219473</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C32" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D32" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" s="7" t="n">
-        <v>18.952534</v>
-      </c>
-      <c r="F32" s="7" t="n">
-        <v>13.906872</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C33" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D33" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E33" s="7" t="n">
-        <v>8.899789</v>
-      </c>
-      <c r="F33" s="7" t="n">
-        <v>7.59483</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C34" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D34" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E34" s="7" t="n">
-        <v>3.99146</v>
-      </c>
-      <c r="F34" s="7" t="n">
-        <v>4.50828</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C35" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D35" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" s="7" t="n">
-        <v>56.504906</v>
-      </c>
-      <c r="F35" s="7" t="n">
-        <v>31.463195</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C36" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D36" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" s="7" t="n">
-        <v>20.995658</v>
-      </c>
-      <c r="F36" s="7" t="n">
-        <v>14.630066</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C37" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D37" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E37" s="7" t="n">
-        <v>10.058901</v>
-      </c>
-      <c r="F37" s="7" t="n">
-        <v>8.298485</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C38" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E38" s="7" t="n">
-        <v>3.806198</v>
-      </c>
-      <c r="F38" s="7" t="n">
-        <v>3.600834</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C39" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E39" s="7" t="n">
-        <v>1.822419</v>
-      </c>
-      <c r="F39" s="7" t="n">
-        <v>2.647261</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <autoFilter ref="B4:F39"/>
-  <mergeCells count="2">
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF00A933"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M53"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="14.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="13.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="7" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="11.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="7" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="7" width="11.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="7" width="8.88"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="L4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>0.670482</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <v>0.545713</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="23"/>
-      <c r="L5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="23" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>5.038427</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>9.717148</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="23"/>
-      <c r="L6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>9.153264</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>11.718822</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="L7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="25" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>13.495002</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>12.209751</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>1.401786</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>4.513018</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>16.98325</v>
-      </c>
-      <c r="F10" s="7" t="n">
-        <v>15.339133</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="7" t="n">
-        <v>2.899659</v>
-      </c>
-      <c r="F11" s="7" t="n">
-        <v>4.819167</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7" t="n">
-        <v>22.480203</v>
-      </c>
-      <c r="F12" s="7" t="n">
-        <v>21.263739</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>6.173838</v>
-      </c>
-      <c r="F13" s="7" t="n">
-        <v>8.688761</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>26.815981</v>
-      </c>
-      <c r="F14" s="7" t="n">
-        <v>19.359225</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="7" t="n">
-        <v>8.172039</v>
-      </c>
-      <c r="F15" s="7" t="n">
-        <v>9.1544</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>0.764964</v>
-      </c>
-      <c r="F16" s="7" t="n">
-        <v>1.305641</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>30.29574</v>
-      </c>
-      <c r="F17" s="7" t="n">
-        <v>22.351062</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D18" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>10.19038</v>
-      </c>
-      <c r="F18" s="7" t="n">
-        <v>10.068435</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D19" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" s="7" t="n">
-        <v>2.983916</v>
-      </c>
-      <c r="F19" s="7" t="n">
-        <v>4.665606</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D20" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>34.478584</v>
-      </c>
-      <c r="F20" s="7" t="n">
-        <v>24.499494</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>12.375259</v>
-      </c>
-      <c r="F21" s="7" t="n">
-        <v>11.152266</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D22" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v>3.856832</v>
-      </c>
-      <c r="F22" s="7" t="n">
-        <v>4.421627</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C23" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D23" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="7" t="n">
-        <v>40.41394</v>
-      </c>
-      <c r="F23" s="7" t="n">
-        <v>23.259567</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C24" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" s="7" t="n">
-        <v>12.89869</v>
-      </c>
-      <c r="F24" s="7" t="n">
-        <v>8.96348</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C25" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D25" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E25" s="7" t="n">
-        <v>5.521215</v>
-      </c>
-      <c r="F25" s="7" t="n">
-        <v>5.487234</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C26" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D26" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E26" s="7" t="n">
-        <v>1.745288</v>
-      </c>
-      <c r="F26" s="7" t="n">
-        <v>2.852443</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C27" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D27" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" s="7" t="n">
-        <v>45.509823</v>
-      </c>
-      <c r="F27" s="7" t="n">
-        <v>29.602163</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C28" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D28" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" s="7" t="n">
-        <v>16.79624</v>
-      </c>
-      <c r="F28" s="7" t="n">
-        <v>13.443413</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C29" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D29" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E29" s="7" t="n">
-        <v>7.555887</v>
-      </c>
-      <c r="F29" s="7" t="n">
-        <v>7.117481</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C30" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D30" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E30" s="7" t="n">
-        <v>2.276543</v>
-      </c>
-      <c r="F30" s="7" t="n">
-        <v>3.202349</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C31" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D31" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E31" s="7" t="n">
-        <v>46.365095</v>
-      </c>
-      <c r="F31" s="7" t="n">
-        <v>29.149902</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C32" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D32" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" s="7" t="n">
-        <v>18.869955</v>
-      </c>
-      <c r="F32" s="7" t="n">
-        <v>13.522598</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C33" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D33" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E33" s="7" t="n">
-        <v>8.780176</v>
-      </c>
-      <c r="F33" s="7" t="n">
-        <v>7.450141</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C34" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D34" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E34" s="7" t="n">
-        <v>3.416651</v>
-      </c>
-      <c r="F34" s="7" t="n">
-        <v>3.892406</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C35" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D35" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" s="7" t="n">
-        <v>52.978868</v>
-      </c>
-      <c r="F35" s="7" t="n">
-        <v>31.666152</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C36" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D36" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" s="7" t="n">
-        <v>21.396818</v>
-      </c>
-      <c r="F36" s="7" t="n">
-        <v>15.433181</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C37" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D37" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E37" s="7" t="n">
-        <v>14.509373</v>
-      </c>
-      <c r="F37" s="7" t="n">
-        <v>16.706616</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C38" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E38" s="7" t="n">
-        <v>8.216209</v>
-      </c>
-      <c r="F38" s="7" t="n">
-        <v>9.287472</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C39" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E39" s="7" t="n">
-        <v>4.092766</v>
-      </c>
-      <c r="F39" s="7" t="n">
-        <v>8.225176</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <autoFilter ref="B4:F39"/>
-  <mergeCells count="2">
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -11923,9 +10035,9 @@
     <tabColor rgb="FF00A933"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -11937,34 +10049,38 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="13.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="7" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="19" width="9.4"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="7" width="8.88"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>18</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11978,10 +10094,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>1065.509352</v>
+        <v>386.000135</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>1217.24727</v>
+        <v>1026.798875</v>
+      </c>
+      <c r="G5" s="19" t="n">
+        <v>9678</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11995,10 +10114,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>1.226527</v>
+        <v>363.108577</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>1.668418</v>
+        <v>481.041574</v>
+      </c>
+      <c r="G6" s="19" t="n">
+        <v>9717</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12012,10 +10134,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>1081.658062</v>
+        <v>211.702406</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>1173.318689</v>
+        <v>285.72192</v>
+      </c>
+      <c r="G7" s="19" t="n">
+        <v>9837</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12029,10 +10154,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>8.907358</v>
+        <v>207.332264</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>17.943818</v>
+        <v>310.09293</v>
+      </c>
+      <c r="G8" s="19" t="n">
+        <v>9873</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12046,10 +10174,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>1526.878626</v>
+        <v>149.584817</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>1233.75504</v>
+        <v>327.429473</v>
+      </c>
+      <c r="G9" s="19" t="n">
+        <v>9933</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12063,10 +10194,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>16.162924</v>
+        <v>140.397445</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>24.468597</v>
+        <v>234.75493</v>
+      </c>
+      <c r="G10" s="19" t="n">
+        <v>9951</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12080,10 +10214,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>2346.483543</v>
+        <v>108.09323</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>1601.100596</v>
+        <v>146.030195</v>
+      </c>
+      <c r="G11" s="19" t="n">
+        <v>10002</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12097,10 +10234,13 @@
         <v>2</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>23.471485</v>
+        <v>106.260279</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>27.748779</v>
+        <v>146.09353</v>
+      </c>
+      <c r="G12" s="19" t="n">
+        <v>10026</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12114,10 +10254,13 @@
         <v>3</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>0.988653</v>
+        <v>105.268296</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>1.1397</v>
+        <v>143.1114</v>
+      </c>
+      <c r="G13" s="19" t="n">
+        <v>10044</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12131,10 +10274,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>1762.519323</v>
+        <v>87.065928</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>1575.294236</v>
+        <v>118.735509</v>
+      </c>
+      <c r="G14" s="19" t="n">
+        <v>10065</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12148,10 +10294,13 @@
         <v>2</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>30.806513</v>
+        <v>84.962247</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>31.564129</v>
+        <v>113.999422</v>
+      </c>
+      <c r="G15" s="19" t="n">
+        <v>10083</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12165,10 +10314,13 @@
         <v>3</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>4.355577</v>
+        <v>85.321716</v>
       </c>
       <c r="F16" s="7" t="n">
-        <v>7.414021</v>
+        <v>116.148858</v>
+      </c>
+      <c r="G16" s="19" t="n">
+        <v>10077</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12182,10 +10334,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>1666.488947</v>
+        <v>75.919911</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>1607.690879</v>
+        <v>107.200382</v>
+      </c>
+      <c r="G17" s="19" t="n">
+        <v>10182</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12199,10 +10354,13 @@
         <v>2</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>38.30787</v>
+        <v>68.529766</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>36.659829</v>
+        <v>92.292447</v>
+      </c>
+      <c r="G18" s="19" t="n">
+        <v>10158</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12216,10 +10374,13 @@
         <v>3</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>7.278599</v>
+        <v>71.110951</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>12.510571</v>
+        <v>97.76873</v>
+      </c>
+      <c r="G19" s="19" t="n">
+        <v>10185</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12233,10 +10394,13 @@
         <v>1</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>1342.790075</v>
+        <v>62.834583</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>1624.710707</v>
+        <v>84.480354</v>
+      </c>
+      <c r="G20" s="19" t="n">
+        <v>10251</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12250,10 +10414,13 @@
         <v>2</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>45.79945</v>
+        <v>60.777993</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>39.039437</v>
+        <v>81.151485</v>
+      </c>
+      <c r="G21" s="19" t="n">
+        <v>10233</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12267,10 +10434,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>10.264856</v>
+        <v>63.013102</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>15.023978</v>
+        <v>297.989097</v>
+      </c>
+      <c r="G22" s="19" t="n">
+        <v>10230</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12284,10 +10454,13 @@
         <v>4</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>1.030256</v>
+        <v>60.002872</v>
       </c>
       <c r="F23" s="7" t="n">
-        <v>1.17494</v>
+        <v>81.235801</v>
+      </c>
+      <c r="G23" s="19" t="n">
+        <v>10191</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12301,10 +10474,13 @@
         <v>1</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>1665.278642</v>
+        <v>55.896135</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>1536.056033</v>
+        <v>77.56689</v>
+      </c>
+      <c r="G24" s="19" t="n">
+        <v>10215</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12318,10 +10494,13 @@
         <v>2</v>
       </c>
       <c r="E25" s="7" t="n">
-        <v>53.715869</v>
+        <v>53.337571</v>
       </c>
       <c r="F25" s="7" t="n">
-        <v>43.594035</v>
+        <v>73.107497</v>
+      </c>
+      <c r="G25" s="19" t="n">
+        <v>10227</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12335,10 +10514,13 @@
         <v>3</v>
       </c>
       <c r="E26" s="7" t="n">
-        <v>13.42765</v>
+        <v>52.67579</v>
       </c>
       <c r="F26" s="7" t="n">
-        <v>17.607727</v>
+        <v>70.374736</v>
+      </c>
+      <c r="G26" s="19" t="n">
+        <v>10257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12352,10 +10534,13 @@
         <v>4</v>
       </c>
       <c r="E27" s="7" t="n">
-        <v>2.712967</v>
+        <v>52.809349</v>
       </c>
       <c r="F27" s="7" t="n">
-        <v>4.504447</v>
+        <v>71.840031</v>
+      </c>
+      <c r="G27" s="19" t="n">
+        <v>10266</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12369,10 +10554,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="7" t="n">
-        <v>1809.69426</v>
+        <v>51.304121</v>
       </c>
       <c r="F28" s="7" t="n">
-        <v>1492.292812</v>
+        <v>72.598506</v>
+      </c>
+      <c r="G28" s="19" t="n">
+        <v>10344</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12386,10 +10574,13 @@
         <v>2</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>58.788368</v>
+        <v>46.775544</v>
       </c>
       <c r="F29" s="7" t="n">
-        <v>44.582847</v>
+        <v>61.533198</v>
+      </c>
+      <c r="G29" s="19" t="n">
+        <v>10362</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12403,10 +10594,13 @@
         <v>3</v>
       </c>
       <c r="E30" s="7" t="n">
-        <v>16.196709</v>
+        <v>48.17935</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>17.837536</v>
+        <v>66.420154</v>
+      </c>
+      <c r="G30" s="19" t="n">
+        <v>10335</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12420,10 +10614,13 @@
         <v>4</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>4.585581</v>
+        <v>45.869274</v>
       </c>
       <c r="F31" s="7" t="n">
-        <v>7.266589</v>
+        <v>61.624027</v>
+      </c>
+      <c r="G31" s="19" t="n">
+        <v>10314</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12437,10 +10634,13 @@
         <v>1</v>
       </c>
       <c r="E32" s="7" t="n">
-        <v>1708.586407</v>
+        <v>44.849123</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>1676.372515</v>
+        <v>60.469947</v>
+      </c>
+      <c r="G32" s="19" t="n">
+        <v>10296</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12454,10 +10654,13 @@
         <v>2</v>
       </c>
       <c r="E33" s="7" t="n">
-        <v>67.25831</v>
+        <v>41.784694</v>
       </c>
       <c r="F33" s="7" t="n">
-        <v>48.049821</v>
+        <v>55.065797</v>
+      </c>
+      <c r="G33" s="19" t="n">
+        <v>10407</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12471,10 +10674,13 @@
         <v>3</v>
       </c>
       <c r="E34" s="7" t="n">
-        <v>19.095944</v>
+        <v>42.855126</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>19.492767</v>
+        <v>58.902868</v>
+      </c>
+      <c r="G34" s="19" t="n">
+        <v>10353</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12488,10 +10694,13 @@
         <v>4</v>
       </c>
       <c r="E35" s="7" t="n">
-        <v>6.279431</v>
+        <v>43.397346</v>
       </c>
       <c r="F35" s="7" t="n">
-        <v>8.681863</v>
+        <v>58.554522</v>
+      </c>
+      <c r="G35" s="19" t="n">
+        <v>10323</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12505,10 +10714,13 @@
         <v>5</v>
       </c>
       <c r="E36" s="7" t="n">
-        <v>1.045097</v>
+        <v>42.561864</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>1.303039</v>
+        <v>56.997937</v>
+      </c>
+      <c r="G36" s="19" t="n">
+        <v>10344</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12522,10 +10734,13 @@
         <v>1</v>
       </c>
       <c r="E37" s="7" t="n">
-        <v>2117.31575</v>
+        <v>41.162127</v>
       </c>
       <c r="F37" s="7" t="n">
-        <v>1675.316306</v>
+        <v>60.216729</v>
+      </c>
+      <c r="G37" s="19" t="n">
+        <v>10461</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12539,10 +10754,13 @@
         <v>2</v>
       </c>
       <c r="E38" s="7" t="n">
-        <v>76.610026</v>
+        <v>39.528365</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>53.459764</v>
+        <v>55.74565</v>
+      </c>
+      <c r="G38" s="19" t="n">
+        <v>10422</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12556,10 +10774,13 @@
         <v>3</v>
       </c>
       <c r="E39" s="7" t="n">
-        <v>21.738764</v>
+        <v>39.028538</v>
       </c>
       <c r="F39" s="7" t="n">
-        <v>20.665196</v>
+        <v>53.25023</v>
+      </c>
+      <c r="G39" s="19" t="n">
+        <v>10332</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12573,10 +10794,13 @@
         <v>4</v>
       </c>
       <c r="E40" s="7" t="n">
-        <v>8.135242</v>
+        <v>39.009248</v>
       </c>
       <c r="F40" s="7" t="n">
-        <v>10.162764</v>
+        <v>52.821923</v>
+      </c>
+      <c r="G40" s="19" t="n">
+        <v>10359</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12590,10 +10814,13 @@
         <v>5</v>
       </c>
       <c r="E41" s="7" t="n">
-        <v>2.364696</v>
+        <v>39.011415</v>
       </c>
       <c r="F41" s="7" t="n">
-        <v>4.020931</v>
+        <v>53.47604</v>
+      </c>
+      <c r="G41" s="19" t="n">
+        <v>10353</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12607,10 +10834,13 @@
         <v>1</v>
       </c>
       <c r="E42" s="7" t="n">
-        <v>860.866879</v>
+        <v>38.618254</v>
       </c>
       <c r="F42" s="7" t="n">
-        <v>883.379963</v>
+        <v>54.651017</v>
+      </c>
+      <c r="G42" s="19" t="n">
+        <v>10344</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12624,10 +10854,13 @@
         <v>2</v>
       </c>
       <c r="E43" s="7" t="n">
-        <v>83.273897</v>
+        <v>35.097348</v>
       </c>
       <c r="F43" s="7" t="n">
-        <v>52.832146</v>
+        <v>48.182665</v>
+      </c>
+      <c r="G43" s="19" t="n">
+        <v>10476</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12641,10 +10874,13 @@
         <v>3</v>
       </c>
       <c r="E44" s="7" t="n">
-        <v>26.218414</v>
+        <v>40.929528</v>
       </c>
       <c r="F44" s="7" t="n">
-        <v>23.739078</v>
+        <v>639.795022</v>
+      </c>
+      <c r="G44" s="19" t="n">
+        <v>10509</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12658,10 +10894,13 @@
         <v>4</v>
       </c>
       <c r="E45" s="7" t="n">
-        <v>10.08853</v>
+        <v>35.821259</v>
       </c>
       <c r="F45" s="7" t="n">
-        <v>11.870267</v>
+        <v>49.66798</v>
+      </c>
+      <c r="G45" s="19" t="n">
+        <v>10452</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12675,10 +10914,13 @@
         <v>5</v>
       </c>
       <c r="E46" s="7" t="n">
-        <v>3.532612</v>
+        <v>36.447343</v>
       </c>
       <c r="F46" s="7" t="n">
-        <v>5.01423</v>
+        <v>49.465724</v>
+      </c>
+      <c r="G46" s="19" t="n">
+        <v>10407</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12692,10 +10934,13 @@
         <v>1</v>
       </c>
       <c r="E47" s="7" t="n">
-        <v>1602.553284</v>
+        <v>34.561231</v>
       </c>
       <c r="F47" s="7" t="n">
-        <v>1536.500021</v>
+        <v>46.995879</v>
+      </c>
+      <c r="G47" s="19" t="n">
+        <v>10473</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12709,10 +10954,13 @@
         <v>2</v>
       </c>
       <c r="E48" s="7" t="n">
-        <v>90.495972</v>
+        <v>32.812946</v>
       </c>
       <c r="F48" s="7" t="n">
-        <v>56.206409</v>
+        <v>43.968014</v>
+      </c>
+      <c r="G48" s="19" t="n">
+        <v>10455</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12726,10 +10974,13 @@
         <v>3</v>
       </c>
       <c r="E49" s="7" t="n">
-        <v>27.467322</v>
+        <v>32.627448</v>
       </c>
       <c r="F49" s="7" t="n">
-        <v>27.963768</v>
+        <v>44.206092</v>
+      </c>
+      <c r="G49" s="19" t="n">
+        <v>10443</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12743,10 +10994,13 @@
         <v>4</v>
       </c>
       <c r="E50" s="7" t="n">
-        <v>11.987978</v>
+        <v>31.486197</v>
       </c>
       <c r="F50" s="7" t="n">
-        <v>15.118172</v>
+        <v>42.950918</v>
+      </c>
+      <c r="G50" s="19" t="n">
+        <v>10539</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12760,10 +11014,13 @@
         <v>5</v>
       </c>
       <c r="E51" s="7" t="n">
-        <v>4.677901</v>
+        <v>32.880922</v>
       </c>
       <c r="F51" s="7" t="n">
-        <v>6.068824</v>
+        <v>44.858725</v>
+      </c>
+      <c r="G51" s="19" t="n">
+        <v>10482</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12777,10 +11034,13 @@
         <v>6</v>
       </c>
       <c r="E52" s="7" t="n">
-        <v>1.122853</v>
+        <v>32.567636</v>
       </c>
       <c r="F52" s="7" t="n">
-        <v>1.49719</v>
+        <v>44.255249</v>
+      </c>
+      <c r="G52" s="19" t="n">
+        <v>10503</v>
       </c>
     </row>
   </sheetData>
@@ -12790,4794 +11050,6 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF00A933"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F52"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="14.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="13.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="7" width="8.88"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>1141.311147</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <v>1221.506806</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>1.854138</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>2.037749</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>1134.759555</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>1365.009041</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>10.012263</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>29.706311</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>1658.587488</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>1467.185324</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>18.35469</v>
-      </c>
-      <c r="F10" s="7" t="n">
-        <v>27.297988</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7" t="n">
-        <v>2167.106881</v>
-      </c>
-      <c r="F11" s="7" t="n">
-        <v>1611.881131</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7" t="n">
-        <v>28.440477</v>
-      </c>
-      <c r="F12" s="7" t="n">
-        <v>32.069857</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>1.72084</v>
-      </c>
-      <c r="F13" s="7" t="n">
-        <v>1.795485</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>2058.811987</v>
-      </c>
-      <c r="F14" s="7" t="n">
-        <v>1100.877513</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" s="7" t="n">
-        <v>36.625696</v>
-      </c>
-      <c r="F15" s="7" t="n">
-        <v>37.891673</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>4.788928</v>
-      </c>
-      <c r="F16" s="7" t="n">
-        <v>10.292872</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>1995.833313</v>
-      </c>
-      <c r="F17" s="7" t="n">
-        <v>1491.397242</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D18" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>48.494172</v>
-      </c>
-      <c r="F18" s="7" t="n">
-        <v>48.803225</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" s="7" t="n">
-        <v>8.633759</v>
-      </c>
-      <c r="F19" s="7" t="n">
-        <v>13.435578</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>2165.351183</v>
-      </c>
-      <c r="F20" s="7" t="n">
-        <v>1568.257627</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D21" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>55.915615</v>
-      </c>
-      <c r="F21" s="7" t="n">
-        <v>47.819047</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D22" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v>11.58237</v>
-      </c>
-      <c r="F22" s="7" t="n">
-        <v>16.759806</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C23" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D23" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" s="7" t="n">
-        <v>1.488848</v>
-      </c>
-      <c r="F23" s="7" t="n">
-        <v>1.802761</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C24" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7" t="n">
-        <v>1995.889873</v>
-      </c>
-      <c r="F24" s="7" t="n">
-        <v>1531.987613</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C25" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D25" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" s="7" t="n">
-        <v>65.263074</v>
-      </c>
-      <c r="F25" s="7" t="n">
-        <v>53.89369</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C26" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D26" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" s="7" t="n">
-        <v>15.616589</v>
-      </c>
-      <c r="F26" s="7" t="n">
-        <v>18.403308</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C27" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D27" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E27" s="7" t="n">
-        <v>3.483808</v>
-      </c>
-      <c r="F27" s="7" t="n">
-        <v>6.156885</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C28" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D28" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7" t="n">
-        <v>2310.008033</v>
-      </c>
-      <c r="F28" s="7" t="n">
-        <v>1616.002689</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C29" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D29" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="7" t="n">
-        <v>73.74015</v>
-      </c>
-      <c r="F29" s="7" t="n">
-        <v>56.054535</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C30" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D30" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E30" s="7" t="n">
-        <v>18.788987</v>
-      </c>
-      <c r="F30" s="7" t="n">
-        <v>21.455403</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C31" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D31" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E31" s="7" t="n">
-        <v>5.560868</v>
-      </c>
-      <c r="F31" s="7" t="n">
-        <v>8.07825</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C32" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D32" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7" t="n">
-        <v>2438.651429</v>
-      </c>
-      <c r="F32" s="7" t="n">
-        <v>1282.993283</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C33" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D33" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E33" s="7" t="n">
-        <v>84.018748</v>
-      </c>
-      <c r="F33" s="7" t="n">
-        <v>60.573886</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C34" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D34" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E34" s="7" t="n">
-        <v>22.165447</v>
-      </c>
-      <c r="F34" s="7" t="n">
-        <v>22.678828</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C35" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D35" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E35" s="7" t="n">
-        <v>7.132985</v>
-      </c>
-      <c r="F35" s="7" t="n">
-        <v>10.067769</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C36" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D36" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E36" s="7" t="n">
-        <v>1.686536</v>
-      </c>
-      <c r="F36" s="7" t="n">
-        <v>2.039936</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C37" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D37" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="7" t="n">
-        <v>2209.839573</v>
-      </c>
-      <c r="F37" s="7" t="n">
-        <v>1604.503753</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C38" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D38" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E38" s="7" t="n">
-        <v>93.928224</v>
-      </c>
-      <c r="F38" s="7" t="n">
-        <v>66.748466</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C39" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D39" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E39" s="7" t="n">
-        <v>25.169258</v>
-      </c>
-      <c r="F39" s="7" t="n">
-        <v>24.001011</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C40" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D40" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E40" s="7" t="n">
-        <v>9.757738</v>
-      </c>
-      <c r="F40" s="7" t="n">
-        <v>11.859901</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C41" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D41" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E41" s="7" t="n">
-        <v>2.765307</v>
-      </c>
-      <c r="F41" s="7" t="n">
-        <v>4.547437</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C42" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D42" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="7" t="n">
-        <v>2215.641232</v>
-      </c>
-      <c r="F42" s="7" t="n">
-        <v>1293.163565</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C43" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D43" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E43" s="7" t="n">
-        <v>105.023592</v>
-      </c>
-      <c r="F43" s="7" t="n">
-        <v>69.971492</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C44" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D44" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E44" s="7" t="n">
-        <v>28.695354</v>
-      </c>
-      <c r="F44" s="7" t="n">
-        <v>26.352579</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C45" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D45" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E45" s="7" t="n">
-        <v>10.99502</v>
-      </c>
-      <c r="F45" s="7" t="n">
-        <v>12.883288</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C46" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D46" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E46" s="7" t="n">
-        <v>4.299414</v>
-      </c>
-      <c r="F46" s="7" t="n">
-        <v>5.587903</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C47" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D47" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="7" t="n">
-        <v>2024.785835</v>
-      </c>
-      <c r="F47" s="7" t="n">
-        <v>1091.110094</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C48" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D48" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E48" s="7" t="n">
-        <v>112.215499</v>
-      </c>
-      <c r="F48" s="7" t="n">
-        <v>72.971088</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C49" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D49" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E49" s="7" t="n">
-        <v>31.390099</v>
-      </c>
-      <c r="F49" s="7" t="n">
-        <v>29.940114</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C50" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D50" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E50" s="7" t="n">
-        <v>13.265178</v>
-      </c>
-      <c r="F50" s="7" t="n">
-        <v>15.641025</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C51" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D51" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E51" s="7" t="n">
-        <v>5.926499</v>
-      </c>
-      <c r="F51" s="7" t="n">
-        <v>6.904286</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C52" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D52" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E52" s="7" t="n">
-        <v>2.198278</v>
-      </c>
-      <c r="F52" s="7" t="n">
-        <v>2.789381</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF00A933"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F52"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="14.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="13.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="7" width="8.88"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>1322.100886</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <v>1315.586996</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>1.71971</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>2.622798</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>1495.948852</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>1385.63873</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>10.017066</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>18.250015</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>1694.2909</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>1486.86977</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>11.263129</v>
-      </c>
-      <c r="F10" s="7" t="n">
-        <v>12.198399</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7" t="n">
-        <v>1193.36626</v>
-      </c>
-      <c r="F11" s="7" t="n">
-        <v>1211.59967</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7" t="n">
-        <v>15.629747</v>
-      </c>
-      <c r="F12" s="7" t="n">
-        <v>12.784496</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>1.023036</v>
-      </c>
-      <c r="F13" s="7" t="n">
-        <v>1.01457</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>4.962771</v>
-      </c>
-      <c r="F14" s="7" t="n">
-        <v>2.571876</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" s="7" t="n">
-        <v>20.385299</v>
-      </c>
-      <c r="F15" s="7" t="n">
-        <v>16.288217</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>3.942335</v>
-      </c>
-      <c r="F16" s="7" t="n">
-        <v>5.315402</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>723.405254</v>
-      </c>
-      <c r="F17" s="7" t="n">
-        <v>1010.131</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D18" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>25.532311</v>
-      </c>
-      <c r="F18" s="7" t="n">
-        <v>21.261315</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" s="7" t="n">
-        <v>6.634291</v>
-      </c>
-      <c r="F19" s="7" t="n">
-        <v>7.261857</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>1456.803313</v>
-      </c>
-      <c r="F20" s="7" t="n">
-        <v>1620.871652</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D21" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>30.497304</v>
-      </c>
-      <c r="F21" s="7" t="n">
-        <v>18.927853</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D22" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v>8.173269</v>
-      </c>
-      <c r="F22" s="7" t="n">
-        <v>7.747636</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C23" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D23" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" s="7" t="n">
-        <v>1.500982</v>
-      </c>
-      <c r="F23" s="7" t="n">
-        <v>1.775785</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C24" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7" t="n">
-        <v>1897.090778</v>
-      </c>
-      <c r="F24" s="7" t="n">
-        <v>1630.248044</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C25" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D25" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" s="7" t="n">
-        <v>35.880209</v>
-      </c>
-      <c r="F25" s="7" t="n">
-        <v>22.537427</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C26" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D26" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" s="7" t="n">
-        <v>10.916251</v>
-      </c>
-      <c r="F26" s="7" t="n">
-        <v>9.253971</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C27" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D27" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E27" s="7" t="n">
-        <v>2.910417</v>
-      </c>
-      <c r="F27" s="7" t="n">
-        <v>3.866057</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C28" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D28" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7" t="n">
-        <v>1332.789183</v>
-      </c>
-      <c r="F28" s="7" t="n">
-        <v>1651.779105</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C29" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D29" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="7" t="n">
-        <v>41.165034</v>
-      </c>
-      <c r="F29" s="7" t="n">
-        <v>24.290345</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C30" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D30" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E30" s="7" t="n">
-        <v>13.178593</v>
-      </c>
-      <c r="F30" s="7" t="n">
-        <v>10.323877</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C31" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D31" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E31" s="7" t="n">
-        <v>4.874465</v>
-      </c>
-      <c r="F31" s="7" t="n">
-        <v>5.233073</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C32" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D32" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7" t="n">
-        <v>1602.700762</v>
-      </c>
-      <c r="F32" s="7" t="n">
-        <v>2069.557492</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C33" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D33" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E33" s="7" t="n">
-        <v>44.611999</v>
-      </c>
-      <c r="F33" s="7" t="n">
-        <v>22.71227</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C34" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D34" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E34" s="7" t="n">
-        <v>15.339728</v>
-      </c>
-      <c r="F34" s="7" t="n">
-        <v>10.636614</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C35" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D35" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E35" s="7" t="n">
-        <v>6.29194</v>
-      </c>
-      <c r="F35" s="7" t="n">
-        <v>5.865058</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C36" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D36" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E36" s="7" t="n">
-        <v>1.249996</v>
-      </c>
-      <c r="F36" s="7" t="n">
-        <v>1.611078</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C37" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D37" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="7" t="n">
-        <v>1550.150038</v>
-      </c>
-      <c r="F37" s="7" t="n">
-        <v>1740.796413</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C38" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D38" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E38" s="7" t="n">
-        <v>49.702092</v>
-      </c>
-      <c r="F38" s="7" t="n">
-        <v>25.21429</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C39" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D39" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E39" s="7" t="n">
-        <v>17.637245</v>
-      </c>
-      <c r="F39" s="7" t="n">
-        <v>12.232657</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C40" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D40" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E40" s="7" t="n">
-        <v>8.045955</v>
-      </c>
-      <c r="F40" s="7" t="n">
-        <v>7.246175</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C41" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D41" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E41" s="7" t="n">
-        <v>3.187259</v>
-      </c>
-      <c r="F41" s="7" t="n">
-        <v>3.72778</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C42" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D42" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="7" t="n">
-        <v>1570.880812</v>
-      </c>
-      <c r="F42" s="7" t="n">
-        <v>1740.410506</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C43" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D43" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E43" s="7" t="n">
-        <v>54.625835</v>
-      </c>
-      <c r="F43" s="7" t="n">
-        <v>26.371077</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C44" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D44" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E44" s="7" t="n">
-        <v>21.088913</v>
-      </c>
-      <c r="F44" s="7" t="n">
-        <v>13.884828</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C45" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D45" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E45" s="7" t="n">
-        <v>9.667998</v>
-      </c>
-      <c r="F45" s="7" t="n">
-        <v>8.081377</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C46" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D46" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E46" s="7" t="n">
-        <v>3.986854</v>
-      </c>
-      <c r="F46" s="7" t="n">
-        <v>4.257087</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C47" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D47" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="7" t="n">
-        <v>1183.925975</v>
-      </c>
-      <c r="F47" s="7" t="n">
-        <v>1631.069839</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C48" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D48" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E48" s="7" t="n">
-        <v>59.642741</v>
-      </c>
-      <c r="F48" s="7" t="n">
-        <v>27.584371</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C49" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D49" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E49" s="7" t="n">
-        <v>23.065687</v>
-      </c>
-      <c r="F49" s="7" t="n">
-        <v>14.462927</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C50" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D50" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E50" s="7" t="n">
-        <v>11.329034</v>
-      </c>
-      <c r="F50" s="7" t="n">
-        <v>8.830166</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C51" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D51" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E51" s="7" t="n">
-        <v>5.314176</v>
-      </c>
-      <c r="F51" s="7" t="n">
-        <v>5.16415</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C52" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D52" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E52" s="7" t="n">
-        <v>2.434533</v>
-      </c>
-      <c r="F52" s="7" t="n">
-        <v>3.365654</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF00A933"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F52"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="14.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="13.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="7" width="8.88"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>1321.347177</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <v>1414.995024</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>1.261619</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>0.908482</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>467.692984</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>500.508528</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>5.822434</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>9.825381</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>1260.263382</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>1413.002981</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>10.790536</v>
-      </c>
-      <c r="F10" s="7" t="n">
-        <v>11.997317</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7" t="n">
-        <v>1452.031174</v>
-      </c>
-      <c r="F11" s="7" t="n">
-        <v>1827.365493</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7" t="n">
-        <v>15.655547</v>
-      </c>
-      <c r="F12" s="7" t="n">
-        <v>13.422651</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>1.129717</v>
-      </c>
-      <c r="F13" s="7" t="n">
-        <v>1.247923</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>618.820921</v>
-      </c>
-      <c r="F14" s="7" t="n">
-        <v>797.154628</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" s="7" t="n">
-        <v>20.273768</v>
-      </c>
-      <c r="F15" s="7" t="n">
-        <v>16.201018</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>3.275963</v>
-      </c>
-      <c r="F16" s="7" t="n">
-        <v>4.708161</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>2484.378742</v>
-      </c>
-      <c r="F17" s="7" t="n">
-        <v>2480.668569</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D18" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>24.978299</v>
-      </c>
-      <c r="F18" s="7" t="n">
-        <v>17.80725</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" s="7" t="n">
-        <v>6.230259</v>
-      </c>
-      <c r="F19" s="7" t="n">
-        <v>6.620655</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>1710.938027</v>
-      </c>
-      <c r="F20" s="7" t="n">
-        <v>2830.422592</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D21" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>29.78928</v>
-      </c>
-      <c r="F21" s="7" t="n">
-        <v>18.863705</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D22" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v>8.163031</v>
-      </c>
-      <c r="F22" s="7" t="n">
-        <v>7.303228</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C23" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D23" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" s="7" t="n">
-        <v>1.067104</v>
-      </c>
-      <c r="F23" s="7" t="n">
-        <v>1.165246</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C24" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7" t="n">
-        <v>1540.409256</v>
-      </c>
-      <c r="F24" s="7" t="n">
-        <v>1519.743379</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C25" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D25" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" s="7" t="n">
-        <v>35.253205</v>
-      </c>
-      <c r="F25" s="7" t="n">
-        <v>21.377057</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C26" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D26" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" s="7" t="n">
-        <v>10.919178</v>
-      </c>
-      <c r="F26" s="7" t="n">
-        <v>9.294152</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C27" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D27" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E27" s="7" t="n">
-        <v>2.776622</v>
-      </c>
-      <c r="F27" s="7" t="n">
-        <v>3.77135</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C28" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D28" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7" t="n">
-        <v>1390.385783</v>
-      </c>
-      <c r="F28" s="7" t="n">
-        <v>1494.831011</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C29" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D29" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="7" t="n">
-        <v>39.35159</v>
-      </c>
-      <c r="F29" s="7" t="n">
-        <v>21.834218</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C30" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D30" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E30" s="7" t="n">
-        <v>12.879296</v>
-      </c>
-      <c r="F30" s="7" t="n">
-        <v>10.153548</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C31" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D31" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E31" s="7" t="n">
-        <v>5.009321</v>
-      </c>
-      <c r="F31" s="7" t="n">
-        <v>5.194371</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C32" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D32" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7" t="n">
-        <v>1223.501487</v>
-      </c>
-      <c r="F32" s="7" t="n">
-        <v>1217.509154</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C33" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D33" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E33" s="7" t="n">
-        <v>44.375716</v>
-      </c>
-      <c r="F33" s="7" t="n">
-        <v>23.194224</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C34" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D34" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E34" s="7" t="n">
-        <v>15.212466</v>
-      </c>
-      <c r="F34" s="7" t="n">
-        <v>10.812124</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C35" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D35" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E35" s="7" t="n">
-        <v>5.738445</v>
-      </c>
-      <c r="F35" s="7" t="n">
-        <v>5.60358</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C36" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D36" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E36" s="7" t="n">
-        <v>1.667111</v>
-      </c>
-      <c r="F36" s="7" t="n">
-        <v>2.178645</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C37" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D37" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="7" t="n">
-        <v>2181.547347</v>
-      </c>
-      <c r="F37" s="7" t="n">
-        <v>1850.848865</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C38" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D38" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E38" s="7" t="n">
-        <v>49.606334</v>
-      </c>
-      <c r="F38" s="7" t="n">
-        <v>25.535634</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C39" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D39" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E39" s="7" t="n">
-        <v>17.767784</v>
-      </c>
-      <c r="F39" s="7" t="n">
-        <v>12.079856</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C40" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D40" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E40" s="7" t="n">
-        <v>8.312509</v>
-      </c>
-      <c r="F40" s="7" t="n">
-        <v>7.143249</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C41" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D41" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E41" s="7" t="n">
-        <v>2.717995</v>
-      </c>
-      <c r="F41" s="7" t="n">
-        <v>3.392458</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C42" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D42" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="7" t="n">
-        <v>1393.541167</v>
-      </c>
-      <c r="F42" s="7" t="n">
-        <v>1445.912508</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C43" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D43" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E43" s="7" t="n">
-        <v>55.309852</v>
-      </c>
-      <c r="F43" s="7" t="n">
-        <v>27.69572</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C44" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D44" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E44" s="7" t="n">
-        <v>20.13007</v>
-      </c>
-      <c r="F44" s="7" t="n">
-        <v>13.001252</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C45" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D45" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E45" s="7" t="n">
-        <v>9.489327</v>
-      </c>
-      <c r="F45" s="7" t="n">
-        <v>7.831651</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C46" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D46" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E46" s="7" t="n">
-        <v>3.588476</v>
-      </c>
-      <c r="F46" s="7" t="n">
-        <v>3.888921</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C47" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D47" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="7" t="n">
-        <v>1316.917909</v>
-      </c>
-      <c r="F47" s="7" t="n">
-        <v>1473.399067</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C48" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D48" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E48" s="7" t="n">
-        <v>59.201434</v>
-      </c>
-      <c r="F48" s="7" t="n">
-        <v>27.695815</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C49" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D49" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E49" s="7" t="n">
-        <v>22.157321</v>
-      </c>
-      <c r="F49" s="7" t="n">
-        <v>13.527673</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C50" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D50" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E50" s="7" t="n">
-        <v>10.887713</v>
-      </c>
-      <c r="F50" s="7" t="n">
-        <v>8.543813</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C51" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D51" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E51" s="7" t="n">
-        <v>4.741362</v>
-      </c>
-      <c r="F51" s="7" t="n">
-        <v>4.554367</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C52" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D52" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E52" s="7" t="n">
-        <v>2.103534</v>
-      </c>
-      <c r="F52" s="7" t="n">
-        <v>2.836322</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF00A933"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M1048576"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P17" activeCellId="0" sqref="P17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="14.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="13.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="7" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="11.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="7" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="7" width="11.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="7" width="8.88"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="L4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>1.116585</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <v>1.71867</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="23"/>
-      <c r="L5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="23" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>9.691883</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>23.002381</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="23"/>
-      <c r="L6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>20.159838</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>32.976338</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="L7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="25" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>29.797482</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>37.384731</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>2.136947</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>9.806185</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>37.576571</v>
-      </c>
-      <c r="F10" s="7" t="n">
-        <v>44.426933</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="7" t="n">
-        <v>4.919015</v>
-      </c>
-      <c r="F11" s="7" t="n">
-        <v>13.660003</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7" t="n">
-        <v>46.717544</v>
-      </c>
-      <c r="F12" s="7" t="n">
-        <v>49.516728</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>9.564451</v>
-      </c>
-      <c r="F13" s="7" t="n">
-        <v>20.664585</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>55.372216</v>
-      </c>
-      <c r="F14" s="7" t="n">
-        <v>54.00791</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="7" t="n">
-        <v>12.587055</v>
-      </c>
-      <c r="F15" s="7" t="n">
-        <v>24.089956</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>2.414858</v>
-      </c>
-      <c r="F16" s="7" t="n">
-        <v>6.995157</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>63.601265</v>
-      </c>
-      <c r="F17" s="7" t="n">
-        <v>57.289086</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D18" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>16.816768</v>
-      </c>
-      <c r="F18" s="7" t="n">
-        <v>26.55756</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D19" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" s="7" t="n">
-        <v>4.419219</v>
-      </c>
-      <c r="F19" s="7" t="n">
-        <v>9.85448</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D20" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>72.372034</v>
-      </c>
-      <c r="F20" s="7" t="n">
-        <v>65.186834</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>18.711345</v>
-      </c>
-      <c r="F21" s="7" t="n">
-        <v>24.2419</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D22" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v>6.009422</v>
-      </c>
-      <c r="F22" s="7" t="n">
-        <v>10.912823</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C23" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D23" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="7" t="n">
-        <v>88.302031</v>
-      </c>
-      <c r="F23" s="7" t="n">
-        <v>68.295671</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C24" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" s="7" t="n">
-        <v>23.87948</v>
-      </c>
-      <c r="F24" s="7" t="n">
-        <v>29.014832</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C25" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D25" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E25" s="7" t="n">
-        <v>6.836372</v>
-      </c>
-      <c r="F25" s="7" t="n">
-        <v>10.611419</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C26" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D26" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E26" s="7" t="n">
-        <v>1.771297</v>
-      </c>
-      <c r="F26" s="7" t="n">
-        <v>4.496171</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C27" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D27" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" s="7" t="n">
-        <v>1.001308</v>
-      </c>
-      <c r="F27" s="7" t="n">
-        <v>1.146246</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C28" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D28" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" s="7" t="n">
-        <v>25.132017</v>
-      </c>
-      <c r="F28" s="7" t="n">
-        <v>26.479265</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C29" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D29" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E29" s="7" t="n">
-        <v>10.128947</v>
-      </c>
-      <c r="F29" s="7" t="n">
-        <v>14.591638</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C30" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D30" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E30" s="7" t="n">
-        <v>3.757008</v>
-      </c>
-      <c r="F30" s="7" t="n">
-        <v>7.127872</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C31" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D31" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E31" s="7" t="n">
-        <v>104.633527</v>
-      </c>
-      <c r="F31" s="7" t="n">
-        <v>75.787932</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C32" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D32" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" s="7" t="n">
-        <v>29.533914</v>
-      </c>
-      <c r="F32" s="7" t="n">
-        <v>30.668972</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C33" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D33" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E33" s="7" t="n">
-        <v>10.830584</v>
-      </c>
-      <c r="F33" s="7" t="n">
-        <v>13.388969</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C34" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D34" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E34" s="7" t="n">
-        <v>4.996883</v>
-      </c>
-      <c r="F34" s="7" t="n">
-        <v>7.85802</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C35" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D35" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" s="7" t="n">
-        <v>113.716335</v>
-      </c>
-      <c r="F35" s="7" t="n">
-        <v>79.178565</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C36" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D36" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" s="7" t="n">
-        <v>32.809769</v>
-      </c>
-      <c r="F36" s="7" t="n">
-        <v>32.539969</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C37" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D37" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E37" s="7" t="n">
-        <v>13.099533</v>
-      </c>
-      <c r="F37" s="7" t="n">
-        <v>16.818577</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C38" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E38" s="7" t="n">
-        <v>6.488224</v>
-      </c>
-      <c r="F38" s="7" t="n">
-        <v>9.786252</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C39" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E39" s="7" t="n">
-        <v>5.011809</v>
-      </c>
-      <c r="F39" s="7" t="n">
-        <v>6.989672</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF00A933"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M53"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P17" activeCellId="0" sqref="P17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="14.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="13.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="7" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="11.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="7" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="7" width="11.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="7" width="8.88"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="L4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>0.872886</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <v>1.685175</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="23"/>
-      <c r="L5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="23" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>4.675261</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>9.625546</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="23"/>
-      <c r="L6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>10.155966</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>17.172438</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="L7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="25" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>13.88437</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>12.984621</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>1.313327</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>3.80878</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>16.046296</v>
-      </c>
-      <c r="F10" s="7" t="n">
-        <v>15.176679</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="7" t="n">
-        <v>3.675967</v>
-      </c>
-      <c r="F11" s="7" t="n">
-        <v>6.871002</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7" t="n">
-        <v>21.874806</v>
-      </c>
-      <c r="F12" s="7" t="n">
-        <v>16.749837</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>6.705474</v>
-      </c>
-      <c r="F13" s="7" t="n">
-        <v>9.587715</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>30.607605</v>
-      </c>
-      <c r="F14" s="7" t="n">
-        <v>22.114028</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="7" t="n">
-        <v>7.136988</v>
-      </c>
-      <c r="F15" s="7" t="n">
-        <v>6.919241</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>1.866901</v>
-      </c>
-      <c r="F16" s="7" t="n">
-        <v>3.817738</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>31.861316</v>
-      </c>
-      <c r="F17" s="7" t="n">
-        <v>23.220306</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D18" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>10.813848</v>
-      </c>
-      <c r="F18" s="7" t="n">
-        <v>11.109173</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D19" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" s="7" t="n">
-        <v>3.514729</v>
-      </c>
-      <c r="F19" s="7" t="n">
-        <v>5.306336</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D20" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>38.26829</v>
-      </c>
-      <c r="F20" s="7" t="n">
-        <v>25.158647</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>12.862207</v>
-      </c>
-      <c r="F21" s="7" t="n">
-        <v>12.172917</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D22" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v>4.401246</v>
-      </c>
-      <c r="F22" s="7" t="n">
-        <v>5.76503</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C23" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D23" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="7" t="n">
-        <v>37.102387</v>
-      </c>
-      <c r="F23" s="7" t="n">
-        <v>22.360512</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C24" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" s="7" t="n">
-        <v>12.853453</v>
-      </c>
-      <c r="F24" s="7" t="n">
-        <v>9.01225</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C25" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D25" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E25" s="7" t="n">
-        <v>6.694389</v>
-      </c>
-      <c r="F25" s="7" t="n">
-        <v>8.327759</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C26" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D26" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E26" s="7" t="n">
-        <v>1.509729</v>
-      </c>
-      <c r="F26" s="7" t="n">
-        <v>3.000831</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C27" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D27" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" s="7" t="n">
-        <v>0.662544</v>
-      </c>
-      <c r="F27" s="7" t="n">
-        <v>0.661502</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C28" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D28" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" s="7" t="n">
-        <v>14.237603</v>
-      </c>
-      <c r="F28" s="7" t="n">
-        <v>13.251606</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C29" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D29" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E29" s="7" t="n">
-        <v>7.47134</v>
-      </c>
-      <c r="F29" s="7" t="n">
-        <v>7.412559</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C30" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D30" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E30" s="7" t="n">
-        <v>2.933423</v>
-      </c>
-      <c r="F30" s="7" t="n">
-        <v>4.19829</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C31" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D31" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E31" s="7" t="n">
-        <v>1.745846</v>
-      </c>
-      <c r="F31" s="7" t="n">
-        <v>2.350053</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C32" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D32" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" s="7" t="n">
-        <v>16.875137</v>
-      </c>
-      <c r="F32" s="7" t="n">
-        <v>13.14371</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C33" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D33" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E33" s="7" t="n">
-        <v>9.442223</v>
-      </c>
-      <c r="F33" s="7" t="n">
-        <v>8.908111</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C34" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D34" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E34" s="7" t="n">
-        <v>3.500865</v>
-      </c>
-      <c r="F34" s="7" t="n">
-        <v>4.230711</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C35" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D35" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" s="7" t="n">
-        <v>2.726904</v>
-      </c>
-      <c r="F35" s="7" t="n">
-        <v>3.043257</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C36" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D36" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" s="7" t="n">
-        <v>18.86364</v>
-      </c>
-      <c r="F36" s="7" t="n">
-        <v>14.187113</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C37" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D37" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E37" s="7" t="n">
-        <v>10.860237</v>
-      </c>
-      <c r="F37" s="7" t="n">
-        <v>9.359384</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C38" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E38" s="7" t="n">
-        <v>5.097559</v>
-      </c>
-      <c r="F38" s="7" t="n">
-        <v>5.335727</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C39" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E39" s="7" t="n">
-        <v>3.606896</v>
-      </c>
-      <c r="F39" s="7" t="n">
-        <v>3.472637</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF00A933"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M53"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P17" activeCellId="0" sqref="P17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="11.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="14.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="13.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="7" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="11.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="7" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="7" width="11.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="7" width="8.88"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="L4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>0.706794</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <v>1.059611</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="23"/>
-      <c r="L5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="23" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>4.874093</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>9.49598</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="23"/>
-      <c r="L6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>9.655038</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>12.628334</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="L7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="25" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>13.754072</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>12.059353</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>1.533892</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>4.951053</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>16.828085</v>
-      </c>
-      <c r="F10" s="7" t="n">
-        <v>15.165653</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="7" t="n">
-        <v>3.816018</v>
-      </c>
-      <c r="F11" s="7" t="n">
-        <v>6.931709</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7" t="n">
-        <v>25.00655</v>
-      </c>
-      <c r="F12" s="7" t="n">
-        <v>20.970065</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>5.955527</v>
-      </c>
-      <c r="F13" s="7" t="n">
-        <v>9.005846</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>26.61135</v>
-      </c>
-      <c r="F14" s="7" t="n">
-        <v>19.235814</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="7" t="n">
-        <v>8.287722</v>
-      </c>
-      <c r="F15" s="7" t="n">
-        <v>9.230024</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>0.683645</v>
-      </c>
-      <c r="F16" s="7" t="n">
-        <v>1.161592</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>28.560703</v>
-      </c>
-      <c r="F17" s="7" t="n">
-        <v>20.558641</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D18" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>9.847958</v>
-      </c>
-      <c r="F18" s="7" t="n">
-        <v>9.61471</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D19" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" s="7" t="n">
-        <v>2.246976</v>
-      </c>
-      <c r="F19" s="7" t="n">
-        <v>3.471343</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D20" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>36.893986</v>
-      </c>
-      <c r="F20" s="7" t="n">
-        <v>26.732767</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>12.55437</v>
-      </c>
-      <c r="F21" s="7" t="n">
-        <v>11.529674</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D22" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v>4.716578</v>
-      </c>
-      <c r="F22" s="7" t="n">
-        <v>5.907912</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C23" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D23" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="7" t="n">
-        <v>41.276606</v>
-      </c>
-      <c r="F23" s="7" t="n">
-        <v>24.952458</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C24" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" s="7" t="n">
-        <v>13.437544</v>
-      </c>
-      <c r="F24" s="7" t="n">
-        <v>10.143124</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C25" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D25" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E25" s="7" t="n">
-        <v>6.218171</v>
-      </c>
-      <c r="F25" s="7" t="n">
-        <v>6.023015</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C26" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D26" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E26" s="7" t="n">
-        <v>0.849036</v>
-      </c>
-      <c r="F26" s="7" t="n">
-        <v>1.532762</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C27" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D27" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" s="7" t="n">
-        <v>43.309315</v>
-      </c>
-      <c r="F27" s="7" t="n">
-        <v>30.66954</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C28" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D28" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" s="7" t="n">
-        <v>15.535762</v>
-      </c>
-      <c r="F28" s="7" t="n">
-        <v>10.968341</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C29" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D29" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E29" s="7" t="n">
-        <v>7.784764</v>
-      </c>
-      <c r="F29" s="7" t="n">
-        <v>7.667877</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C30" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D30" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E30" s="7" t="n">
-        <v>2.973211</v>
-      </c>
-      <c r="F30" s="7" t="n">
-        <v>4.015289</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C31" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D31" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E31" s="7" t="n">
-        <v>48.865411</v>
-      </c>
-      <c r="F31" s="7" t="n">
-        <v>28.945463</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C32" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D32" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" s="7" t="n">
-        <v>18.655031</v>
-      </c>
-      <c r="F32" s="7" t="n">
-        <v>13.47812</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C33" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D33" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E33" s="7" t="n">
-        <v>8.447962</v>
-      </c>
-      <c r="F33" s="7" t="n">
-        <v>7.151344</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C34" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D34" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E34" s="7" t="n">
-        <v>4.172554</v>
-      </c>
-      <c r="F34" s="7" t="n">
-        <v>4.568357</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C35" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D35" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" s="7" t="n">
-        <v>54.641088</v>
-      </c>
-      <c r="F35" s="7" t="n">
-        <v>31.850396</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C36" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D36" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" s="7" t="n">
-        <v>20.233304</v>
-      </c>
-      <c r="F36" s="7" t="n">
-        <v>13.41295</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C37" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D37" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E37" s="7" t="n">
-        <v>9.398896</v>
-      </c>
-      <c r="F37" s="7" t="n">
-        <v>7.222219</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C38" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E38" s="7" t="n">
-        <v>4.979409</v>
-      </c>
-      <c r="F38" s="7" t="n">
-        <v>4.743898</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C39" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E39" s="7" t="n">
-        <v>1.329165</v>
-      </c>
-      <c r="F39" s="7" t="n">
-        <v>2.122292</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <autoFilter ref="B4:F39"/>
-  <mergeCells count="2">
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/stats/statistics.xlsx
+++ b/stats/statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\Desktop\SORTproject\SantaClausProblem\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22DF0A5-56E2-462F-960F-511D105DE369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D19C926-FE70-4636-BBE5-E72D812DAF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery time" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,11 @@
     <sheet name="Elves waiting time" sheetId="3" r:id="rId3"/>
     <sheet name="Elves waiting time 2" sheetId="4" r:id="rId4"/>
     <sheet name="Delivery delay" sheetId="5" r:id="rId5"/>
+    <sheet name="Delivery delay (consult=400)" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Delivery delay'!$B$4:$G$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Delivery delay (consult=400)'!$B$4:$G$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Elves waiting time'!$B$4:$G$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Elves waiting time 2'!$B$4:$G$52</definedName>
   </definedNames>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="23">
   <si>
     <r>
       <rPr>
@@ -222,6 +224,9 @@
   </si>
   <si>
     <t>Delivery delay time ms (santa_v3)</t>
+  </si>
+  <si>
+    <t>Delivery delay time ms (santa_v3) consult = 400</t>
   </si>
 </sst>
 </file>
@@ -1075,6 +1080,60 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>75609</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Immagine 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04B081D7-5848-96A7-0516-7A02F56D0502}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="14193" t="18228" r="18750" b="9376"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7170420" y="1104901"/>
+          <a:ext cx="4648200" cy="3763688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
@@ -12506,6 +12565,1025 @@
   </sheetPr>
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="14.77734375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="1024" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>9.5498170000000009</v>
+      </c>
+      <c r="F5" s="7">
+        <v>8.4136839999999999</v>
+      </c>
+      <c r="G5" s="19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>10.409886</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5.5514859999999997</v>
+      </c>
+      <c r="G6" s="19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>10.249748</v>
+      </c>
+      <c r="F7" s="7">
+        <v>6.751379</v>
+      </c>
+      <c r="G7" s="19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>7.7531020000000002</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5.3163850000000004</v>
+      </c>
+      <c r="G8" s="19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>11.599779</v>
+      </c>
+      <c r="F9" s="7">
+        <v>15.176536</v>
+      </c>
+      <c r="G9" s="19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>8.9900909999999996</v>
+      </c>
+      <c r="F10" s="7">
+        <v>5.9809190000000001</v>
+      </c>
+      <c r="G10" s="19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>14.497166</v>
+      </c>
+      <c r="F11" s="7">
+        <v>20.730893999999999</v>
+      </c>
+      <c r="G11" s="19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>8.6966219999999996</v>
+      </c>
+      <c r="F12" s="7">
+        <v>5.6404670000000001</v>
+      </c>
+      <c r="G12" s="19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7">
+        <v>9.6807759999999998</v>
+      </c>
+      <c r="F13" s="7">
+        <v>5.5675929999999996</v>
+      </c>
+      <c r="G13" s="19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="7">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>13.167455</v>
+      </c>
+      <c r="F14" s="7">
+        <v>20.927524999999999</v>
+      </c>
+      <c r="G14" s="19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>7.5013170000000002</v>
+      </c>
+      <c r="F15" s="7">
+        <v>5.7112699999999998</v>
+      </c>
+      <c r="G15" s="19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="7">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>8.5178930000000008</v>
+      </c>
+      <c r="F16" s="7">
+        <v>5.3626040000000001</v>
+      </c>
+      <c r="G16" s="19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>20.623688999999999</v>
+      </c>
+      <c r="F17" s="7">
+        <v>55.747573000000003</v>
+      </c>
+      <c r="G17" s="19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7">
+        <v>8.0966780000000007</v>
+      </c>
+      <c r="F18" s="7">
+        <v>6.4614149999999997</v>
+      </c>
+      <c r="G18" s="19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7">
+        <v>8</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7">
+        <v>8.813758</v>
+      </c>
+      <c r="F19" s="7">
+        <v>5.8579619999999997</v>
+      </c>
+      <c r="G19" s="19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="7">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
+        <v>10.560891</v>
+      </c>
+      <c r="F20" s="7">
+        <v>14.772957999999999</v>
+      </c>
+      <c r="G20" s="19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="7">
+        <v>9</v>
+      </c>
+      <c r="C21" s="7">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2</v>
+      </c>
+      <c r="E21" s="7">
+        <v>8.5851360000000003</v>
+      </c>
+      <c r="F21" s="7">
+        <v>5.9883179999999996</v>
+      </c>
+      <c r="G21" s="19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="7">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7">
+        <v>9</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3</v>
+      </c>
+      <c r="E22" s="7">
+        <v>7.4042719999999997</v>
+      </c>
+      <c r="F22" s="7">
+        <v>5.5564400000000003</v>
+      </c>
+      <c r="G22" s="19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="7">
+        <v>9</v>
+      </c>
+      <c r="C23" s="7">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4</v>
+      </c>
+      <c r="E23" s="7">
+        <v>8.9174140000000008</v>
+      </c>
+      <c r="F23" s="7">
+        <v>5.8594939999999998</v>
+      </c>
+      <c r="G23" s="19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="7">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7">
+        <v>15.542519</v>
+      </c>
+      <c r="F24" s="7">
+        <v>24.223980999999998</v>
+      </c>
+      <c r="G24" s="19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="7">
+        <v>9</v>
+      </c>
+      <c r="C25" s="7">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2</v>
+      </c>
+      <c r="E25" s="7">
+        <v>9.4361219999999992</v>
+      </c>
+      <c r="F25" s="7">
+        <v>5.5559979999999998</v>
+      </c>
+      <c r="G25" s="19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="7">
+        <v>9</v>
+      </c>
+      <c r="C26" s="7">
+        <v>10</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7">
+        <v>9.1147840000000002</v>
+      </c>
+      <c r="F26" s="7">
+        <v>5.741981</v>
+      </c>
+      <c r="G26" s="19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="7">
+        <v>9</v>
+      </c>
+      <c r="C27" s="7">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7">
+        <v>4</v>
+      </c>
+      <c r="E27" s="7">
+        <v>9.0503769999999992</v>
+      </c>
+      <c r="F27" s="7">
+        <v>5.373977</v>
+      </c>
+      <c r="G27" s="19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="7">
+        <v>9</v>
+      </c>
+      <c r="C28" s="7">
+        <v>11</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7">
+        <v>12.548093</v>
+      </c>
+      <c r="F28" s="7">
+        <v>18.426207000000002</v>
+      </c>
+      <c r="G28" s="19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="7">
+        <v>9</v>
+      </c>
+      <c r="C29" s="7">
+        <v>11</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>8.7720310000000001</v>
+      </c>
+      <c r="F29" s="7">
+        <v>6.5276730000000001</v>
+      </c>
+      <c r="G29" s="19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="7">
+        <v>9</v>
+      </c>
+      <c r="C30" s="7">
+        <v>11</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3</v>
+      </c>
+      <c r="E30" s="7">
+        <v>7.4073320000000002</v>
+      </c>
+      <c r="F30" s="7">
+        <v>5.4947600000000003</v>
+      </c>
+      <c r="G30" s="19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="7">
+        <v>9</v>
+      </c>
+      <c r="C31" s="7">
+        <v>11</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4</v>
+      </c>
+      <c r="E31" s="7">
+        <v>8.1299580000000002</v>
+      </c>
+      <c r="F31" s="7">
+        <v>5.9192590000000003</v>
+      </c>
+      <c r="G31" s="19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="7">
+        <v>9</v>
+      </c>
+      <c r="C32" s="7">
+        <v>12</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7">
+        <v>14.719108</v>
+      </c>
+      <c r="F32" s="7">
+        <v>18.563504999999999</v>
+      </c>
+      <c r="G32" s="19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="7">
+        <v>9</v>
+      </c>
+      <c r="C33" s="7">
+        <v>12</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2</v>
+      </c>
+      <c r="E33" s="7">
+        <v>8.6563940000000006</v>
+      </c>
+      <c r="F33" s="7">
+        <v>6.4546869999999998</v>
+      </c>
+      <c r="G33" s="19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="7">
+        <v>9</v>
+      </c>
+      <c r="C34" s="7">
+        <v>12</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3</v>
+      </c>
+      <c r="E34" s="7">
+        <v>8.2609359999999992</v>
+      </c>
+      <c r="F34" s="7">
+        <v>5.3610720000000001</v>
+      </c>
+      <c r="G34" s="19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="7">
+        <v>9</v>
+      </c>
+      <c r="C35" s="7">
+        <v>12</v>
+      </c>
+      <c r="D35" s="7">
+        <v>4</v>
+      </c>
+      <c r="E35" s="7">
+        <v>8.4629010000000005</v>
+      </c>
+      <c r="F35" s="7">
+        <v>5.6399119999999998</v>
+      </c>
+      <c r="G35" s="19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="7">
+        <v>9</v>
+      </c>
+      <c r="C36" s="7">
+        <v>12</v>
+      </c>
+      <c r="D36" s="7">
+        <v>5</v>
+      </c>
+      <c r="E36" s="7">
+        <v>7.5579210000000003</v>
+      </c>
+      <c r="F36" s="7">
+        <v>4.8486710000000004</v>
+      </c>
+      <c r="G36" s="19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="7">
+        <v>9</v>
+      </c>
+      <c r="C37" s="7">
+        <v>13</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7">
+        <v>13.179655</v>
+      </c>
+      <c r="F37" s="7">
+        <v>17.893378999999999</v>
+      </c>
+      <c r="G37" s="19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="7">
+        <v>9</v>
+      </c>
+      <c r="C38" s="7">
+        <v>13</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2</v>
+      </c>
+      <c r="E38" s="7">
+        <v>7.0424249999999997</v>
+      </c>
+      <c r="F38" s="7">
+        <v>5.2479389999999997</v>
+      </c>
+      <c r="G38" s="19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="7">
+        <v>9</v>
+      </c>
+      <c r="C39" s="7">
+        <v>13</v>
+      </c>
+      <c r="D39" s="7">
+        <v>3</v>
+      </c>
+      <c r="E39" s="7">
+        <v>9.2191600000000005</v>
+      </c>
+      <c r="F39" s="7">
+        <v>6.5828629999999997</v>
+      </c>
+      <c r="G39" s="19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="7">
+        <v>9</v>
+      </c>
+      <c r="C40" s="7">
+        <v>13</v>
+      </c>
+      <c r="D40" s="7">
+        <v>4</v>
+      </c>
+      <c r="E40" s="7">
+        <v>9.022081</v>
+      </c>
+      <c r="F40" s="7">
+        <v>5.8831949999999997</v>
+      </c>
+      <c r="G40" s="19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="7">
+        <v>9</v>
+      </c>
+      <c r="C41" s="7">
+        <v>13</v>
+      </c>
+      <c r="D41" s="7">
+        <v>5</v>
+      </c>
+      <c r="E41" s="7">
+        <v>10.130412</v>
+      </c>
+      <c r="F41" s="7">
+        <v>6.5659419999999997</v>
+      </c>
+      <c r="G41" s="19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="7">
+        <v>9</v>
+      </c>
+      <c r="C42" s="7">
+        <v>14</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7">
+        <v>15.951665</v>
+      </c>
+      <c r="F42" s="7">
+        <v>16.574981999999999</v>
+      </c>
+      <c r="G42" s="19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="7">
+        <v>9</v>
+      </c>
+      <c r="C43" s="7">
+        <v>14</v>
+      </c>
+      <c r="D43" s="7">
+        <v>2</v>
+      </c>
+      <c r="E43" s="7">
+        <v>8.6991960000000006</v>
+      </c>
+      <c r="F43" s="7">
+        <v>5.4353129999999998</v>
+      </c>
+      <c r="G43" s="19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="7">
+        <v>9</v>
+      </c>
+      <c r="C44" s="7">
+        <v>14</v>
+      </c>
+      <c r="D44" s="7">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7">
+        <v>9.1155709999999992</v>
+      </c>
+      <c r="F44" s="7">
+        <v>5.9534520000000004</v>
+      </c>
+      <c r="G44" s="19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="7">
+        <v>9</v>
+      </c>
+      <c r="C45" s="7">
+        <v>14</v>
+      </c>
+      <c r="D45" s="7">
+        <v>4</v>
+      </c>
+      <c r="E45" s="7">
+        <v>8.9060900000000007</v>
+      </c>
+      <c r="F45" s="7">
+        <v>6.003647</v>
+      </c>
+      <c r="G45" s="19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="7">
+        <v>9</v>
+      </c>
+      <c r="C46" s="7">
+        <v>14</v>
+      </c>
+      <c r="D46" s="7">
+        <v>5</v>
+      </c>
+      <c r="E46" s="7">
+        <v>9.3033680000000007</v>
+      </c>
+      <c r="F46" s="7">
+        <v>5.9808399999999997</v>
+      </c>
+      <c r="G46" s="19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="7">
+        <v>9</v>
+      </c>
+      <c r="C47" s="7">
+        <v>15</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7">
+        <v>11.490558</v>
+      </c>
+      <c r="F47" s="7">
+        <v>9.0668419999999994</v>
+      </c>
+      <c r="G47" s="19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="7">
+        <v>9</v>
+      </c>
+      <c r="C48" s="7">
+        <v>15</v>
+      </c>
+      <c r="D48" s="7">
+        <v>2</v>
+      </c>
+      <c r="E48" s="7">
+        <v>7.2889480000000004</v>
+      </c>
+      <c r="F48" s="7">
+        <v>5.768268</v>
+      </c>
+      <c r="G48" s="19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="7">
+        <v>9</v>
+      </c>
+      <c r="C49" s="7">
+        <v>15</v>
+      </c>
+      <c r="D49" s="7">
+        <v>3</v>
+      </c>
+      <c r="E49" s="7">
+        <v>6.8482440000000002</v>
+      </c>
+      <c r="F49" s="7">
+        <v>3.7598569999999998</v>
+      </c>
+      <c r="G49" s="19">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="7">
+        <v>9</v>
+      </c>
+      <c r="C50" s="7">
+        <v>15</v>
+      </c>
+      <c r="D50" s="7">
+        <v>4</v>
+      </c>
+      <c r="E50" s="7">
+        <v>7.0116250000000004</v>
+      </c>
+      <c r="F50" s="7">
+        <v>4.2749350000000002</v>
+      </c>
+      <c r="G50" s="19">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="7">
+        <v>9</v>
+      </c>
+      <c r="C51" s="7">
+        <v>15</v>
+      </c>
+      <c r="D51" s="7">
+        <v>5</v>
+      </c>
+      <c r="E51" s="7">
+        <v>6.0781790000000004</v>
+      </c>
+      <c r="F51" s="7">
+        <v>3.4404219999999999</v>
+      </c>
+      <c r="G51" s="19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="7">
+        <v>9</v>
+      </c>
+      <c r="C52" s="7">
+        <v>15</v>
+      </c>
+      <c r="D52" s="7">
+        <v>6</v>
+      </c>
+      <c r="E52" s="7">
+        <v>7.0375449999999997</v>
+      </c>
+      <c r="F52" s="7">
+        <v>4.0924620000000003</v>
+      </c>
+      <c r="G52" s="19">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B4:G52" xr:uid="{A388DC38-BC9D-40AE-8B31-35B43AC90569}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F0D684-4B24-4E70-8025-557F8CC833DD}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ52"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12522,7 +13600,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -12561,13 +13639,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="7">
-        <v>9.5498170000000009</v>
+        <v>158.979377</v>
       </c>
       <c r="F5" s="7">
-        <v>8.4136839999999999</v>
+        <v>297.49423000000002</v>
       </c>
       <c r="G5" s="19">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -12581,13 +13659,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="7">
-        <v>10.409886</v>
+        <v>4.159173</v>
       </c>
       <c r="F6" s="7">
-        <v>5.5514859999999997</v>
+        <v>3.6468289999999999</v>
       </c>
       <c r="G6" s="19">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -12601,13 +13679,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="7">
-        <v>10.249748</v>
+        <v>252.35283699999999</v>
       </c>
       <c r="F7" s="7">
-        <v>6.751379</v>
+        <v>358.31816800000001</v>
       </c>
       <c r="G7" s="19">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -12621,13 +13699,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="7">
-        <v>7.7531020000000002</v>
+        <v>5.7965900000000001</v>
       </c>
       <c r="F8" s="7">
-        <v>5.3163850000000004</v>
+        <v>3.7664909999999998</v>
       </c>
       <c r="G8" s="19">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -12641,13 +13719,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="7">
-        <v>11.599779</v>
+        <v>234.862347</v>
       </c>
       <c r="F9" s="7">
-        <v>15.176536</v>
+        <v>329.01284900000002</v>
       </c>
       <c r="G9" s="19">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -12661,13 +13739,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="7">
-        <v>8.9900909999999996</v>
+        <v>7.0024470000000001</v>
       </c>
       <c r="F10" s="7">
-        <v>5.9809190000000001</v>
+        <v>3.584006</v>
       </c>
       <c r="G10" s="19">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -12681,13 +13759,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="7">
-        <v>14.497166</v>
+        <v>300.21440899999999</v>
       </c>
       <c r="F11" s="7">
-        <v>20.730893999999999</v>
+        <v>349.72483899999997</v>
       </c>
       <c r="G11" s="19">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -12701,13 +13779,13 @@
         <v>2</v>
       </c>
       <c r="E12" s="7">
-        <v>8.6966219999999996</v>
+        <v>21.420316</v>
       </c>
       <c r="F12" s="7">
-        <v>5.6404670000000001</v>
+        <v>59.138302000000003</v>
       </c>
       <c r="G12" s="19">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -12721,13 +13799,13 @@
         <v>3</v>
       </c>
       <c r="E13" s="7">
-        <v>9.6807759999999998</v>
+        <v>6.811909</v>
       </c>
       <c r="F13" s="7">
-        <v>5.5675929999999996</v>
+        <v>3.8735179999999998</v>
       </c>
       <c r="G13" s="19">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -12741,13 +13819,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="7">
-        <v>13.167455</v>
+        <v>297.11920500000002</v>
       </c>
       <c r="F14" s="7">
-        <v>20.927524999999999</v>
+        <v>307.64159599999999</v>
       </c>
       <c r="G14" s="19">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -12761,13 +13839,13 @@
         <v>2</v>
       </c>
       <c r="E15" s="7">
-        <v>7.5013170000000002</v>
+        <v>60.946742999999998</v>
       </c>
       <c r="F15" s="7">
-        <v>5.7112699999999998</v>
+        <v>136.45914200000001</v>
       </c>
       <c r="G15" s="19">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -12781,13 +13859,13 @@
         <v>3</v>
       </c>
       <c r="E16" s="7">
-        <v>8.5178930000000008</v>
+        <v>6.5392330000000003</v>
       </c>
       <c r="F16" s="7">
-        <v>5.3626040000000001</v>
+        <v>3.4947309999999998</v>
       </c>
       <c r="G16" s="19">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -12801,13 +13879,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="7">
-        <v>20.623688999999999</v>
+        <v>324.22862500000002</v>
       </c>
       <c r="F17" s="7">
-        <v>55.747573000000003</v>
+        <v>392.72484600000001</v>
       </c>
       <c r="G17" s="19">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
@@ -12821,13 +13899,13 @@
         <v>2</v>
       </c>
       <c r="E18" s="7">
-        <v>8.0966780000000007</v>
+        <v>73.950564</v>
       </c>
       <c r="F18" s="7">
-        <v>6.4614149999999997</v>
+        <v>156.878804</v>
       </c>
       <c r="G18" s="19">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
@@ -12841,13 +13919,13 @@
         <v>3</v>
       </c>
       <c r="E19" s="7">
-        <v>8.813758</v>
+        <v>7.4246040000000004</v>
       </c>
       <c r="F19" s="7">
-        <v>5.8579619999999997</v>
+        <v>3.3671060000000002</v>
       </c>
       <c r="G19" s="19">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
@@ -12861,13 +13939,13 @@
         <v>1</v>
       </c>
       <c r="E20" s="7">
-        <v>10.560891</v>
+        <v>368.14143300000001</v>
       </c>
       <c r="F20" s="7">
-        <v>14.772957999999999</v>
+        <v>383.74539900000002</v>
       </c>
       <c r="G20" s="19">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -12881,13 +13959,13 @@
         <v>2</v>
       </c>
       <c r="E21" s="7">
-        <v>8.5851360000000003</v>
+        <v>80.868798999999996</v>
       </c>
       <c r="F21" s="7">
-        <v>5.9883179999999996</v>
+        <v>163.81285399999999</v>
       </c>
       <c r="G21" s="19">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
@@ -12901,13 +13979,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="7">
-        <v>7.4042719999999997</v>
+        <v>8.4997969999999992</v>
       </c>
       <c r="F22" s="7">
-        <v>5.5564400000000003</v>
+        <v>10.665592</v>
       </c>
       <c r="G22" s="19">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
@@ -12921,13 +13999,13 @@
         <v>4</v>
       </c>
       <c r="E23" s="7">
-        <v>8.9174140000000008</v>
+        <v>7.541677</v>
       </c>
       <c r="F23" s="7">
-        <v>5.8594939999999998</v>
+        <v>3.2429969999999999</v>
       </c>
       <c r="G23" s="19">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
@@ -12941,13 +14019,13 @@
         <v>1</v>
       </c>
       <c r="E24" s="7">
-        <v>15.542519</v>
+        <v>429.95154700000001</v>
       </c>
       <c r="F24" s="7">
-        <v>24.223980999999998</v>
+        <v>362.486808</v>
       </c>
       <c r="G24" s="19">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
@@ -12961,13 +14039,13 @@
         <v>2</v>
       </c>
       <c r="E25" s="7">
-        <v>9.4361219999999992</v>
+        <v>131.216093</v>
       </c>
       <c r="F25" s="7">
-        <v>5.5559979999999998</v>
+        <v>265.20543300000003</v>
       </c>
       <c r="G25" s="19">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
@@ -12981,10 +14059,10 @@
         <v>3</v>
       </c>
       <c r="E26" s="7">
-        <v>9.1147840000000002</v>
+        <v>29.597608999999999</v>
       </c>
       <c r="F26" s="7">
-        <v>5.741981</v>
+        <v>83.090451999999999</v>
       </c>
       <c r="G26" s="19">
         <v>106</v>
@@ -13001,13 +14079,13 @@
         <v>4</v>
       </c>
       <c r="E27" s="7">
-        <v>9.0503769999999992</v>
+        <v>7.043393</v>
       </c>
       <c r="F27" s="7">
-        <v>5.373977</v>
+        <v>3.0764019999999999</v>
       </c>
       <c r="G27" s="19">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
@@ -13021,13 +14099,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="7">
-        <v>12.548093</v>
+        <v>439.73378700000001</v>
       </c>
       <c r="F28" s="7">
-        <v>18.426207000000002</v>
+        <v>466.01071200000001</v>
       </c>
       <c r="G28" s="19">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
@@ -13041,13 +14119,13 @@
         <v>2</v>
       </c>
       <c r="E29" s="7">
-        <v>8.7720310000000001</v>
+        <v>113.35981</v>
       </c>
       <c r="F29" s="7">
-        <v>6.5276730000000001</v>
+        <v>156.655191</v>
       </c>
       <c r="G29" s="19">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
@@ -13061,13 +14139,13 @@
         <v>3</v>
       </c>
       <c r="E30" s="7">
-        <v>7.4073320000000002</v>
+        <v>29.854673999999999</v>
       </c>
       <c r="F30" s="7">
-        <v>5.4947600000000003</v>
+        <v>79.048314000000005</v>
       </c>
       <c r="G30" s="19">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
@@ -13081,10 +14159,10 @@
         <v>4</v>
       </c>
       <c r="E31" s="7">
-        <v>8.1299580000000002</v>
+        <v>7.4994630000000004</v>
       </c>
       <c r="F31" s="7">
-        <v>5.9192590000000003</v>
+        <v>3.6296080000000002</v>
       </c>
       <c r="G31" s="19">
         <v>107</v>
@@ -13101,13 +14179,13 @@
         <v>1</v>
       </c>
       <c r="E32" s="7">
-        <v>14.719108</v>
+        <v>391.15803599999998</v>
       </c>
       <c r="F32" s="7">
-        <v>18.563504999999999</v>
+        <v>354.63329599999997</v>
       </c>
       <c r="G32" s="19">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
@@ -13121,13 +14199,13 @@
         <v>2</v>
       </c>
       <c r="E33" s="7">
-        <v>8.6563940000000006</v>
+        <v>185.75011699999999</v>
       </c>
       <c r="F33" s="7">
-        <v>6.4546869999999998</v>
+        <v>234.73734899999999</v>
       </c>
       <c r="G33" s="19">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
@@ -13141,13 +14219,13 @@
         <v>3</v>
       </c>
       <c r="E34" s="7">
-        <v>8.2609359999999992</v>
+        <v>31.685635000000001</v>
       </c>
       <c r="F34" s="7">
-        <v>5.3610720000000001</v>
+        <v>71.543645999999995</v>
       </c>
       <c r="G34" s="19">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
@@ -13161,13 +14239,13 @@
         <v>4</v>
       </c>
       <c r="E35" s="7">
-        <v>8.4629010000000005</v>
+        <v>8.2807750000000002</v>
       </c>
       <c r="F35" s="7">
-        <v>5.6399119999999998</v>
+        <v>9.3902260000000002</v>
       </c>
       <c r="G35" s="19">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
@@ -13181,13 +14259,13 @@
         <v>5</v>
       </c>
       <c r="E36" s="7">
-        <v>7.5579210000000003</v>
+        <v>5.9451470000000004</v>
       </c>
       <c r="F36" s="7">
-        <v>4.8486710000000004</v>
+        <v>3.9619409999999999</v>
       </c>
       <c r="G36" s="19">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
@@ -13201,13 +14279,13 @@
         <v>1</v>
       </c>
       <c r="E37" s="7">
-        <v>13.179655</v>
+        <v>433.837153</v>
       </c>
       <c r="F37" s="7">
-        <v>17.893378999999999</v>
+        <v>356.23592300000001</v>
       </c>
       <c r="G37" s="19">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
@@ -13221,13 +14299,13 @@
         <v>2</v>
       </c>
       <c r="E38" s="7">
-        <v>7.0424249999999997</v>
+        <v>214.233372</v>
       </c>
       <c r="F38" s="7">
-        <v>5.2479389999999997</v>
+        <v>255.71559999999999</v>
       </c>
       <c r="G38" s="19">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
@@ -13241,13 +14319,13 @@
         <v>3</v>
       </c>
       <c r="E39" s="7">
-        <v>9.2191600000000005</v>
+        <v>58.951929999999997</v>
       </c>
       <c r="F39" s="7">
-        <v>6.5828629999999997</v>
+        <v>115.561357</v>
       </c>
       <c r="G39" s="19">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
@@ -13261,13 +14339,13 @@
         <v>4</v>
       </c>
       <c r="E40" s="7">
-        <v>9.022081</v>
+        <v>8.3826319999999992</v>
       </c>
       <c r="F40" s="7">
-        <v>5.8831949999999997</v>
+        <v>31.418433</v>
       </c>
       <c r="G40" s="19">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
@@ -13281,13 +14359,13 @@
         <v>5</v>
       </c>
       <c r="E41" s="7">
-        <v>10.130412</v>
+        <v>5.4102399999999999</v>
       </c>
       <c r="F41" s="7">
-        <v>6.5659419999999997</v>
+        <v>3.8304</v>
       </c>
       <c r="G41" s="19">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
@@ -13301,13 +14379,13 @@
         <v>1</v>
       </c>
       <c r="E42" s="7">
-        <v>15.951665</v>
+        <v>394.30440499999997</v>
       </c>
       <c r="F42" s="7">
-        <v>16.574981999999999</v>
+        <v>379.77635800000002</v>
       </c>
       <c r="G42" s="19">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
@@ -13321,13 +14399,13 @@
         <v>2</v>
       </c>
       <c r="E43" s="7">
-        <v>8.6991960000000006</v>
+        <v>183.72422</v>
       </c>
       <c r="F43" s="7">
-        <v>5.4353129999999998</v>
+        <v>172.57760400000001</v>
       </c>
       <c r="G43" s="19">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
@@ -13341,13 +14419,13 @@
         <v>3</v>
       </c>
       <c r="E44" s="7">
-        <v>9.1155709999999992</v>
+        <v>83.037357999999998</v>
       </c>
       <c r="F44" s="7">
-        <v>5.9534520000000004</v>
+        <v>152.692049</v>
       </c>
       <c r="G44" s="19">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
@@ -13361,13 +14439,13 @@
         <v>4</v>
       </c>
       <c r="E45" s="7">
-        <v>8.9060900000000007</v>
+        <v>19.284503000000001</v>
       </c>
       <c r="F45" s="7">
-        <v>6.003647</v>
+        <v>68.346239999999995</v>
       </c>
       <c r="G45" s="19">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
@@ -13381,13 +14459,13 @@
         <v>5</v>
       </c>
       <c r="E46" s="7">
-        <v>9.3033680000000007</v>
+        <v>5.8125989999999996</v>
       </c>
       <c r="F46" s="7">
-        <v>5.9808399999999997</v>
+        <v>4.1951710000000002</v>
       </c>
       <c r="G46" s="19">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
@@ -13401,13 +14479,13 @@
         <v>1</v>
       </c>
       <c r="E47" s="7">
-        <v>11.490558</v>
+        <v>417.40969699999999</v>
       </c>
       <c r="F47" s="7">
-        <v>9.0668419999999994</v>
+        <v>345.48289899999997</v>
       </c>
       <c r="G47" s="19">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
@@ -13421,13 +14499,13 @@
         <v>2</v>
       </c>
       <c r="E48" s="7">
-        <v>7.2889480000000004</v>
+        <v>188.48266899999999</v>
       </c>
       <c r="F48" s="7">
-        <v>5.768268</v>
+        <v>177.66336699999999</v>
       </c>
       <c r="G48" s="19">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
@@ -13441,13 +14519,13 @@
         <v>3</v>
       </c>
       <c r="E49" s="7">
-        <v>6.8482440000000002</v>
+        <v>93.538416999999995</v>
       </c>
       <c r="F49" s="7">
-        <v>3.7598569999999998</v>
+        <v>122.24421100000001</v>
       </c>
       <c r="G49" s="19">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
@@ -13461,13 +14539,13 @@
         <v>4</v>
       </c>
       <c r="E50" s="7">
-        <v>7.0116250000000004</v>
+        <v>20.089779</v>
       </c>
       <c r="F50" s="7">
-        <v>4.2749350000000002</v>
+        <v>50.611322000000001</v>
       </c>
       <c r="G50" s="19">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
@@ -13481,13 +14559,13 @@
         <v>5</v>
       </c>
       <c r="E51" s="7">
-        <v>6.0781790000000004</v>
+        <v>8.0072519999999994</v>
       </c>
       <c r="F51" s="7">
-        <v>3.4404219999999999</v>
+        <v>3.957694</v>
       </c>
       <c r="G51" s="19">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
@@ -13501,10 +14579,10 @@
         <v>6</v>
       </c>
       <c r="E52" s="7">
-        <v>7.0375449999999997</v>
+        <v>7.1883660000000003</v>
       </c>
       <c r="F52" s="7">
-        <v>4.0924620000000003</v>
+        <v>3.9620920000000002</v>
       </c>
       <c r="G52" s="19">
         <v>108</v>
